--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_EQ组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'(预发布)需要修改的配置文件'!$A$1:$M$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="96">
   <si>
     <t>No</t>
   </si>
@@ -302,13 +302,267 @@
   <si>
     <t>吴永余</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.4</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.properties</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <r>
+      <t>old修改成se
+示例：
+jdbc.driverClassName_old改为jdbc.driverClassName_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+jdbc.url_old改为jdbc.url_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+jdbc.username_old改为jdbc.username_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+jdbc.password_old改为jdbc.password_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改从库数据源配置</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>jdbc.url_se
+jdbc.username_se
+jdbc.password_se
+的配置值改为IP为15的从库DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-renter</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.driverClassName_se=
+jdbc.url_se=
+jdbc.username_se=
+jdbc.password_se=</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置值为IP为15的从库DB</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-renterpc</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>old修改成se
+示例：
+jdbc.driverClassName_old改为jdbc.driverClassName_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+jdbc.url_old改为jdbc.url_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+jdbc.username_old改为jdbc.username_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+jdbc.password_old改为jdbc.password_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -418,6 +672,18 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -574,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +978,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1068,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4840,8 +5118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5753,65 +6031,163 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+    <row r="4" spans="1:13" s="49" customFormat="1" ht="115.5">
+      <c r="A4" s="46">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" s="49" customFormat="1" ht="82.5">
+      <c r="A5" s="46">
+        <v>2</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" s="49" customFormat="1" ht="66">
+      <c r="A6" s="46">
+        <v>3</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="49" customFormat="1" ht="99">
+      <c r="A7" s="46">
+        <v>4</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
@@ -5894,10 +6270,10 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 WVN4:WVN12 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12 JB4:JB12 F4:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12 JB4:JB12 F4:F12 WVN4:WVN12">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576 JE1:JE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 I1:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5910,8 +6286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6823,65 +7199,163 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="115.5">
+      <c r="A4" s="46">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="82.5">
+      <c r="A5" s="46">
+        <v>2</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="66">
+      <c r="A6" s="46">
+        <v>3</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="99">
+      <c r="A7" s="46">
+        <v>4</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
@@ -6964,10 +7438,10 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 ACT4:ACT12 SX4:SX12 JB4:JB12 WVN4:WVN12 F4:F12 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 ACT4:ACT12 SX4:SX12 JB4:JB12 WVN4:WVN12 AMP4:AMP12 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 F4:F12">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 I1:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_EQ组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="100">
   <si>
     <t>No</t>
   </si>
@@ -555,6 +555,22 @@
       </rPr>
       <t>se</t>
     </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>预发环境</t>
+  </si>
+  <si>
+    <t>公测环境</t>
+  </si>
+  <si>
+    <t>配置值为从库DB
+没有从库配置预发主库即可</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置值为从库DB
+没有从库配置公测主库即可</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -677,6 +693,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -840,7 +857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,12 +949,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
@@ -967,6 +978,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,18 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1441,7 +1452,7 @@
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1481,9 +1492,9 @@
       <c r="O2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
@@ -1491,7 +1502,7 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1540,7 +1551,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1589,7 +1600,7 @@
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1638,7 +1649,7 @@
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1687,7 +1698,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1736,7 +1747,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -1785,7 +1796,7 @@
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -1834,7 +1845,7 @@
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1883,7 +1894,7 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1932,7 +1943,7 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -1979,7 +1990,7 @@
     </row>
     <row r="13" spans="1:20" ht="16.5">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -4688,28 +4699,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -5116,26 +5127,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="7" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="33" customWidth="1"/>
-    <col min="5" max="5" width="35" style="33" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="7" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="31" customWidth="1"/>
+    <col min="5" max="5" width="35" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="31" customWidth="1"/>
     <col min="8" max="8" width="25.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="35" customWidth="1"/>
+    <col min="12" max="12" width="9" style="33" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -5959,36 +5970,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -6009,10 +6020,10 @@
       <c r="F3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="38" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="24" t="s">
@@ -6031,163 +6042,139 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="49" customFormat="1" ht="115.5">
-      <c r="A4" s="46">
+    <row r="4" spans="1:13" s="43" customFormat="1" ht="115.5">
+      <c r="A4" s="40">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="47" t="s">
+      <c r="I4" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="47"/>
-    </row>
-    <row r="5" spans="1:13" s="49" customFormat="1" ht="82.5">
-      <c r="A5" s="46">
-        <v>2</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="M4" s="41"/>
+    </row>
+    <row r="5" spans="1:13" s="43" customFormat="1" ht="66">
+      <c r="A5" s="40">
+        <v>3</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="47" t="s">
+      <c r="F5" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="47" t="s">
+      <c r="I5" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" s="49" customFormat="1" ht="66">
-      <c r="A6" s="46">
-        <v>3</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="M5" s="41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="43" customFormat="1" ht="99">
+      <c r="A6" s="40">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="47" t="s">
+      <c r="F6" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="49" customFormat="1" ht="99">
-      <c r="A7" s="46">
-        <v>4</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="47"/>
+      <c r="M6" s="41"/>
+    </row>
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
@@ -6196,8 +6183,8 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="36"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
@@ -6211,8 +6198,8 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -6226,8 +6213,8 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="36"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -6241,40 +6228,28 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="36"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12 JB4:JB12 F4:F12 WVN4:WVN12">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65535:F65547 F131071:F131083 F196607:F196619 F262143:F262155 F327679:F327691 F393215:F393227 F458751:F458763 F524287:F524299 F589823:F589835 F655359:F655371 F720895:F720907 F786431:F786443 F851967:F851979 F917503:F917515 F983039:F983051 JB65535:JB65547 JB131071:JB131083 JB196607:JB196619 JB262143:JB262155 JB327679:JB327691 JB393215:JB393227 JB458751:JB458763 JB524287:JB524299 JB589823:JB589835 JB655359:JB655371 JB720895:JB720907 JB786431:JB786443 JB851967:JB851979 JB917503:JB917515 JB983039:JB983051 SX65535:SX65547 SX131071:SX131083 SX196607:SX196619 SX262143:SX262155 SX327679:SX327691 SX393215:SX393227 SX458751:SX458763 SX524287:SX524299 SX589823:SX589835 SX655359:SX655371 SX720895:SX720907 SX786431:SX786443 SX851967:SX851979 SX917503:SX917515 SX983039:SX983051 ACT65535:ACT65547 ACT131071:ACT131083 ACT196607:ACT196619 ACT262143:ACT262155 ACT327679:ACT327691 ACT393215:ACT393227 ACT458751:ACT458763 ACT524287:ACT524299 ACT589823:ACT589835 ACT655359:ACT655371 ACT720895:ACT720907 ACT786431:ACT786443 ACT851967:ACT851979 ACT917503:ACT917515 ACT983039:ACT983051 AMP65535:AMP65547 AMP131071:AMP131083 AMP196607:AMP196619 AMP262143:AMP262155 AMP327679:AMP327691 AMP393215:AMP393227 AMP458751:AMP458763 AMP524287:AMP524299 AMP589823:AMP589835 AMP655359:AMP655371 AMP720895:AMP720907 AMP786431:AMP786443 AMP851967:AMP851979 AMP917503:AMP917515 AMP983039:AMP983051 AWL65535:AWL65547 AWL131071:AWL131083 AWL196607:AWL196619 AWL262143:AWL262155 AWL327679:AWL327691 AWL393215:AWL393227 AWL458751:AWL458763 AWL524287:AWL524299 AWL589823:AWL589835 AWL655359:AWL655371 AWL720895:AWL720907 AWL786431:AWL786443 AWL851967:AWL851979 AWL917503:AWL917515 AWL983039:AWL983051 BGH65535:BGH65547 BGH131071:BGH131083 BGH196607:BGH196619 BGH262143:BGH262155 BGH327679:BGH327691 BGH393215:BGH393227 BGH458751:BGH458763 BGH524287:BGH524299 BGH589823:BGH589835 BGH655359:BGH655371 BGH720895:BGH720907 BGH786431:BGH786443 BGH851967:BGH851979 BGH917503:BGH917515 BGH983039:BGH983051 BQD65535:BQD65547 BQD131071:BQD131083 BQD196607:BQD196619 BQD262143:BQD262155 BQD327679:BQD327691 BQD393215:BQD393227 BQD458751:BQD458763 BQD524287:BQD524299 BQD589823:BQD589835 BQD655359:BQD655371 BQD720895:BQD720907 BQD786431:BQD786443 BQD851967:BQD851979 BQD917503:BQD917515 BQD983039:BQD983051 BZZ65535:BZZ65547 BZZ131071:BZZ131083 BZZ196607:BZZ196619 BZZ262143:BZZ262155 BZZ327679:BZZ327691 BZZ393215:BZZ393227 BZZ458751:BZZ458763 BZZ524287:BZZ524299 BZZ589823:BZZ589835 BZZ655359:BZZ655371 BZZ720895:BZZ720907 BZZ786431:BZZ786443 BZZ851967:BZZ851979 BZZ917503:BZZ917515 BZZ983039:BZZ983051 CJV65535:CJV65547 CJV131071:CJV131083 CJV196607:CJV196619 CJV262143:CJV262155 CJV327679:CJV327691 CJV393215:CJV393227 CJV458751:CJV458763 CJV524287:CJV524299 CJV589823:CJV589835 CJV655359:CJV655371 CJV720895:CJV720907 CJV786431:CJV786443 CJV851967:CJV851979 CJV917503:CJV917515 CJV983039:CJV983051 CTR65535:CTR65547 CTR131071:CTR131083 CTR196607:CTR196619 CTR262143:CTR262155 CTR327679:CTR327691 CTR393215:CTR393227 CTR458751:CTR458763 CTR524287:CTR524299 CTR589823:CTR589835 CTR655359:CTR655371 CTR720895:CTR720907 CTR786431:CTR786443 CTR851967:CTR851979 CTR917503:CTR917515 CTR983039:CTR983051 DDN65535:DDN65547 DDN131071:DDN131083 DDN196607:DDN196619 DDN262143:DDN262155 DDN327679:DDN327691 DDN393215:DDN393227 DDN458751:DDN458763 DDN524287:DDN524299 DDN589823:DDN589835 DDN655359:DDN655371 DDN720895:DDN720907 DDN786431:DDN786443 DDN851967:DDN851979 DDN917503:DDN917515 DDN983039:DDN983051 DNJ65535:DNJ65547 DNJ131071:DNJ131083 DNJ196607:DNJ196619 DNJ262143:DNJ262155 DNJ327679:DNJ327691 DNJ393215:DNJ393227 DNJ458751:DNJ458763 DNJ524287:DNJ524299 DNJ589823:DNJ589835 DNJ655359:DNJ655371 DNJ720895:DNJ720907 DNJ786431:DNJ786443 DNJ851967:DNJ851979 DNJ917503:DNJ917515 DNJ983039:DNJ983051 DXF65535:DXF65547 DXF131071:DXF131083 DXF196607:DXF196619 DXF262143:DXF262155 DXF327679:DXF327691 DXF393215:DXF393227 DXF458751:DXF458763 DXF524287:DXF524299 DXF589823:DXF589835 DXF655359:DXF655371 DXF720895:DXF720907 DXF786431:DXF786443 DXF851967:DXF851979 DXF917503:DXF917515 DXF983039:DXF983051 EHB65535:EHB65547 EHB131071:EHB131083 EHB196607:EHB196619 EHB262143:EHB262155 EHB327679:EHB327691 EHB393215:EHB393227 EHB458751:EHB458763 EHB524287:EHB524299 EHB589823:EHB589835 EHB655359:EHB655371 EHB720895:EHB720907 EHB786431:EHB786443 EHB851967:EHB851979 EHB917503:EHB917515 EHB983039:EHB983051 EQX65535:EQX65547 EQX131071:EQX131083 EQX196607:EQX196619 EQX262143:EQX262155 EQX327679:EQX327691 EQX393215:EQX393227 EQX458751:EQX458763 EQX524287:EQX524299 EQX589823:EQX589835 EQX655359:EQX655371 EQX720895:EQX720907 EQX786431:EQX786443 EQX851967:EQX851979 EQX917503:EQX917515 EQX983039:EQX983051 FAT65535:FAT65547 FAT131071:FAT131083 FAT196607:FAT196619 FAT262143:FAT262155 FAT327679:FAT327691 FAT393215:FAT393227 FAT458751:FAT458763 FAT524287:FAT524299 FAT589823:FAT589835 FAT655359:FAT655371 FAT720895:FAT720907 FAT786431:FAT786443 FAT851967:FAT851979 FAT917503:FAT917515 FAT983039:FAT983051 FKP65535:FKP65547 FKP131071:FKP131083 FKP196607:FKP196619 FKP262143:FKP262155 FKP327679:FKP327691 FKP393215:FKP393227 FKP458751:FKP458763 FKP524287:FKP524299 FKP589823:FKP589835 FKP655359:FKP655371 FKP720895:FKP720907 FKP786431:FKP786443 FKP851967:FKP851979 FKP917503:FKP917515 FKP983039:FKP983051 FUL65535:FUL65547 FUL131071:FUL131083 FUL196607:FUL196619 FUL262143:FUL262155 FUL327679:FUL327691 FUL393215:FUL393227 FUL458751:FUL458763 FUL524287:FUL524299 FUL589823:FUL589835 FUL655359:FUL655371 FUL720895:FUL720907 FUL786431:FUL786443 FUL851967:FUL851979 FUL917503:FUL917515 FUL983039:FUL983051 GEH65535:GEH65547 GEH131071:GEH131083 GEH196607:GEH196619 GEH262143:GEH262155 GEH327679:GEH327691 GEH393215:GEH393227 GEH458751:GEH458763 GEH524287:GEH524299 GEH589823:GEH589835 GEH655359:GEH655371 GEH720895:GEH720907 GEH786431:GEH786443 GEH851967:GEH851979 GEH917503:GEH917515 GEH983039:GEH983051 GOD65535:GOD65547 GOD131071:GOD131083 GOD196607:GOD196619 GOD262143:GOD262155 GOD327679:GOD327691 GOD393215:GOD393227 GOD458751:GOD458763 GOD524287:GOD524299 GOD589823:GOD589835 GOD655359:GOD655371 GOD720895:GOD720907 GOD786431:GOD786443 GOD851967:GOD851979 GOD917503:GOD917515 GOD983039:GOD983051 GXZ65535:GXZ65547 GXZ131071:GXZ131083 GXZ196607:GXZ196619 GXZ262143:GXZ262155 GXZ327679:GXZ327691 GXZ393215:GXZ393227 GXZ458751:GXZ458763 GXZ524287:GXZ524299 GXZ589823:GXZ589835 GXZ655359:GXZ655371 GXZ720895:GXZ720907 GXZ786431:GXZ786443 GXZ851967:GXZ851979 GXZ917503:GXZ917515 GXZ983039:GXZ983051 HHV65535:HHV65547 HHV131071:HHV131083 HHV196607:HHV196619 HHV262143:HHV262155 HHV327679:HHV327691 HHV393215:HHV393227 HHV458751:HHV458763 HHV524287:HHV524299 HHV589823:HHV589835 HHV655359:HHV655371 HHV720895:HHV720907 HHV786431:HHV786443 HHV851967:HHV851979 HHV917503:HHV917515 HHV983039:HHV983051 HRR65535:HRR65547 HRR131071:HRR131083 HRR196607:HRR196619 HRR262143:HRR262155 HRR327679:HRR327691 HRR393215:HRR393227 HRR458751:HRR458763 HRR524287:HRR524299 HRR589823:HRR589835 HRR655359:HRR655371 HRR720895:HRR720907 HRR786431:HRR786443 HRR851967:HRR851979 HRR917503:HRR917515 HRR983039:HRR983051 IBN65535:IBN65547 IBN131071:IBN131083 IBN196607:IBN196619 IBN262143:IBN262155 IBN327679:IBN327691 IBN393215:IBN393227 IBN458751:IBN458763 IBN524287:IBN524299 IBN589823:IBN589835 IBN655359:IBN655371 IBN720895:IBN720907 IBN786431:IBN786443 IBN851967:IBN851979 IBN917503:IBN917515 IBN983039:IBN983051 ILJ65535:ILJ65547 ILJ131071:ILJ131083 ILJ196607:ILJ196619 ILJ262143:ILJ262155 ILJ327679:ILJ327691 ILJ393215:ILJ393227 ILJ458751:ILJ458763 ILJ524287:ILJ524299 ILJ589823:ILJ589835 ILJ655359:ILJ655371 ILJ720895:ILJ720907 ILJ786431:ILJ786443 ILJ851967:ILJ851979 ILJ917503:ILJ917515 ILJ983039:ILJ983051 IVF65535:IVF65547 IVF131071:IVF131083 IVF196607:IVF196619 IVF262143:IVF262155 IVF327679:IVF327691 IVF393215:IVF393227 IVF458751:IVF458763 IVF524287:IVF524299 IVF589823:IVF589835 IVF655359:IVF655371 IVF720895:IVF720907 IVF786431:IVF786443 IVF851967:IVF851979 IVF917503:IVF917515 IVF983039:IVF983051 JFB65535:JFB65547 JFB131071:JFB131083 JFB196607:JFB196619 JFB262143:JFB262155 JFB327679:JFB327691 JFB393215:JFB393227 JFB458751:JFB458763 JFB524287:JFB524299 JFB589823:JFB589835 JFB655359:JFB655371 JFB720895:JFB720907 JFB786431:JFB786443 JFB851967:JFB851979 JFB917503:JFB917515 JFB983039:JFB983051 JOX65535:JOX65547 JOX131071:JOX131083 JOX196607:JOX196619 JOX262143:JOX262155 JOX327679:JOX327691 JOX393215:JOX393227 JOX458751:JOX458763 JOX524287:JOX524299 JOX589823:JOX589835 JOX655359:JOX655371 JOX720895:JOX720907 JOX786431:JOX786443 JOX851967:JOX851979 JOX917503:JOX917515 JOX983039:JOX983051 JYT65535:JYT65547 JYT131071:JYT131083 JYT196607:JYT196619 JYT262143:JYT262155 JYT327679:JYT327691 JYT393215:JYT393227 JYT458751:JYT458763 JYT524287:JYT524299 JYT589823:JYT589835 JYT655359:JYT655371 JYT720895:JYT720907 JYT786431:JYT786443 JYT851967:JYT851979 JYT917503:JYT917515 JYT983039:JYT983051 KIP65535:KIP65547 KIP131071:KIP131083 KIP196607:KIP196619 KIP262143:KIP262155 KIP327679:KIP327691 KIP393215:KIP393227 KIP458751:KIP458763 KIP524287:KIP524299 KIP589823:KIP589835 KIP655359:KIP655371 KIP720895:KIP720907 KIP786431:KIP786443 KIP851967:KIP851979 KIP917503:KIP917515 KIP983039:KIP983051 KSL65535:KSL65547 KSL131071:KSL131083 KSL196607:KSL196619 KSL262143:KSL262155 KSL327679:KSL327691 KSL393215:KSL393227 KSL458751:KSL458763 KSL524287:KSL524299 KSL589823:KSL589835 KSL655359:KSL655371 KSL720895:KSL720907 KSL786431:KSL786443 KSL851967:KSL851979 KSL917503:KSL917515 KSL983039:KSL983051 LCH65535:LCH65547 LCH131071:LCH131083 LCH196607:LCH196619 LCH262143:LCH262155 LCH327679:LCH327691 LCH393215:LCH393227 LCH458751:LCH458763 LCH524287:LCH524299 LCH589823:LCH589835 LCH655359:LCH655371 LCH720895:LCH720907 LCH786431:LCH786443 LCH851967:LCH851979 LCH917503:LCH917515 LCH983039:LCH983051 LMD65535:LMD65547 LMD131071:LMD131083 LMD196607:LMD196619 LMD262143:LMD262155 LMD327679:LMD327691 LMD393215:LMD393227 LMD458751:LMD458763 LMD524287:LMD524299 LMD589823:LMD589835 LMD655359:LMD655371 LMD720895:LMD720907 LMD786431:LMD786443 LMD851967:LMD851979 LMD917503:LMD917515 LMD983039:LMD983051 LVZ65535:LVZ65547 LVZ131071:LVZ131083 LVZ196607:LVZ196619 LVZ262143:LVZ262155 LVZ327679:LVZ327691 LVZ393215:LVZ393227 LVZ458751:LVZ458763 LVZ524287:LVZ524299 LVZ589823:LVZ589835 LVZ655359:LVZ655371 LVZ720895:LVZ720907 LVZ786431:LVZ786443 LVZ851967:LVZ851979 LVZ917503:LVZ917515 LVZ983039:LVZ983051 MFV65535:MFV65547 MFV131071:MFV131083 MFV196607:MFV196619 MFV262143:MFV262155 MFV327679:MFV327691 MFV393215:MFV393227 MFV458751:MFV458763 MFV524287:MFV524299 MFV589823:MFV589835 MFV655359:MFV655371 MFV720895:MFV720907 MFV786431:MFV786443 MFV851967:MFV851979 MFV917503:MFV917515 MFV983039:MFV983051 MPR65535:MPR65547 MPR131071:MPR131083 MPR196607:MPR196619 MPR262143:MPR262155 MPR327679:MPR327691 MPR393215:MPR393227 MPR458751:MPR458763 MPR524287:MPR524299 MPR589823:MPR589835 MPR655359:MPR655371 MPR720895:MPR720907 MPR786431:MPR786443 MPR851967:MPR851979 MPR917503:MPR917515 MPR983039:MPR983051 MZN65535:MZN65547 MZN131071:MZN131083 MZN196607:MZN196619 MZN262143:MZN262155 MZN327679:MZN327691 MZN393215:MZN393227 MZN458751:MZN458763 MZN524287:MZN524299 MZN589823:MZN589835 MZN655359:MZN655371 MZN720895:MZN720907 MZN786431:MZN786443 MZN851967:MZN851979 MZN917503:MZN917515 MZN983039:MZN983051 NJJ65535:NJJ65547 NJJ131071:NJJ131083 NJJ196607:NJJ196619 NJJ262143:NJJ262155 NJJ327679:NJJ327691 NJJ393215:NJJ393227 NJJ458751:NJJ458763 NJJ524287:NJJ524299 NJJ589823:NJJ589835 NJJ655359:NJJ655371 NJJ720895:NJJ720907 NJJ786431:NJJ786443 NJJ851967:NJJ851979 NJJ917503:NJJ917515 NJJ983039:NJJ983051 NTF65535:NTF65547 NTF131071:NTF131083 NTF196607:NTF196619 NTF262143:NTF262155 NTF327679:NTF327691 NTF393215:NTF393227 NTF458751:NTF458763 NTF524287:NTF524299 NTF589823:NTF589835 NTF655359:NTF655371 NTF720895:NTF720907 NTF786431:NTF786443 NTF851967:NTF851979 NTF917503:NTF917515 NTF983039:NTF983051 ODB65535:ODB65547 ODB131071:ODB131083 ODB196607:ODB196619 ODB262143:ODB262155 ODB327679:ODB327691 ODB393215:ODB393227 ODB458751:ODB458763 ODB524287:ODB524299 ODB589823:ODB589835 ODB655359:ODB655371 ODB720895:ODB720907 ODB786431:ODB786443 ODB851967:ODB851979 ODB917503:ODB917515 ODB983039:ODB983051 OMX65535:OMX65547 OMX131071:OMX131083 OMX196607:OMX196619 OMX262143:OMX262155 OMX327679:OMX327691 OMX393215:OMX393227 OMX458751:OMX458763 OMX524287:OMX524299 OMX589823:OMX589835 OMX655359:OMX655371 OMX720895:OMX720907 OMX786431:OMX786443 OMX851967:OMX851979 OMX917503:OMX917515 OMX983039:OMX983051 OWT65535:OWT65547 OWT131071:OWT131083 OWT196607:OWT196619 OWT262143:OWT262155 OWT327679:OWT327691 OWT393215:OWT393227 OWT458751:OWT458763 OWT524287:OWT524299 OWT589823:OWT589835 OWT655359:OWT655371 OWT720895:OWT720907 OWT786431:OWT786443 OWT851967:OWT851979 OWT917503:OWT917515 OWT983039:OWT983051 PGP65535:PGP65547 PGP131071:PGP131083 PGP196607:PGP196619 PGP262143:PGP262155 PGP327679:PGP327691 PGP393215:PGP393227 PGP458751:PGP458763 PGP524287:PGP524299 PGP589823:PGP589835 PGP655359:PGP655371 PGP720895:PGP720907 PGP786431:PGP786443 PGP851967:PGP851979 PGP917503:PGP917515 PGP983039:PGP983051 PQL65535:PQL65547 PQL131071:PQL131083 PQL196607:PQL196619 PQL262143:PQL262155 PQL327679:PQL327691 PQL393215:PQL393227 PQL458751:PQL458763 PQL524287:PQL524299 PQL589823:PQL589835 PQL655359:PQL655371 PQL720895:PQL720907 PQL786431:PQL786443 PQL851967:PQL851979 PQL917503:PQL917515 PQL983039:PQL983051 QAH65535:QAH65547 QAH131071:QAH131083 QAH196607:QAH196619 QAH262143:QAH262155 QAH327679:QAH327691 QAH393215:QAH393227 QAH458751:QAH458763 QAH524287:QAH524299 QAH589823:QAH589835 QAH655359:QAH655371 QAH720895:QAH720907 QAH786431:QAH786443 QAH851967:QAH851979 QAH917503:QAH917515 QAH983039:QAH983051 QKD65535:QKD65547 QKD131071:QKD131083 QKD196607:QKD196619 QKD262143:QKD262155 QKD327679:QKD327691 QKD393215:QKD393227 QKD458751:QKD458763 QKD524287:QKD524299 QKD589823:QKD589835 QKD655359:QKD655371 QKD720895:QKD720907 QKD786431:QKD786443 QKD851967:QKD851979 QKD917503:QKD917515 QKD983039:QKD983051 QTZ65535:QTZ65547 QTZ131071:QTZ131083 QTZ196607:QTZ196619 QTZ262143:QTZ262155 QTZ327679:QTZ327691 QTZ393215:QTZ393227 QTZ458751:QTZ458763 QTZ524287:QTZ524299 QTZ589823:QTZ589835 QTZ655359:QTZ655371 QTZ720895:QTZ720907 QTZ786431:QTZ786443 QTZ851967:QTZ851979 QTZ917503:QTZ917515 QTZ983039:QTZ983051 RDV65535:RDV65547 RDV131071:RDV131083 RDV196607:RDV196619 RDV262143:RDV262155 RDV327679:RDV327691 RDV393215:RDV393227 RDV458751:RDV458763 RDV524287:RDV524299 RDV589823:RDV589835 RDV655359:RDV655371 RDV720895:RDV720907 RDV786431:RDV786443 RDV851967:RDV851979 RDV917503:RDV917515 RDV983039:RDV983051 RNR65535:RNR65547 RNR131071:RNR131083 RNR196607:RNR196619 RNR262143:RNR262155 RNR327679:RNR327691 RNR393215:RNR393227 RNR458751:RNR458763 RNR524287:RNR524299 RNR589823:RNR589835 RNR655359:RNR655371 RNR720895:RNR720907 RNR786431:RNR786443 RNR851967:RNR851979 RNR917503:RNR917515 RNR983039:RNR983051 RXN65535:RXN65547 RXN131071:RXN131083 RXN196607:RXN196619 RXN262143:RXN262155 RXN327679:RXN327691 RXN393215:RXN393227 RXN458751:RXN458763 RXN524287:RXN524299 RXN589823:RXN589835 RXN655359:RXN655371 RXN720895:RXN720907 RXN786431:RXN786443 RXN851967:RXN851979 RXN917503:RXN917515 RXN983039:RXN983051 SHJ65535:SHJ65547 SHJ131071:SHJ131083 SHJ196607:SHJ196619 SHJ262143:SHJ262155 SHJ327679:SHJ327691 SHJ393215:SHJ393227 SHJ458751:SHJ458763 SHJ524287:SHJ524299 SHJ589823:SHJ589835 SHJ655359:SHJ655371 SHJ720895:SHJ720907 SHJ786431:SHJ786443 SHJ851967:SHJ851979 SHJ917503:SHJ917515 SHJ983039:SHJ983051 SRF65535:SRF65547 SRF131071:SRF131083 SRF196607:SRF196619 SRF262143:SRF262155 SRF327679:SRF327691 SRF393215:SRF393227 SRF458751:SRF458763 SRF524287:SRF524299 SRF589823:SRF589835 SRF655359:SRF655371 SRF720895:SRF720907 SRF786431:SRF786443 SRF851967:SRF851979 SRF917503:SRF917515 SRF983039:SRF983051 TBB65535:TBB65547 TBB131071:TBB131083 TBB196607:TBB196619 TBB262143:TBB262155 TBB327679:TBB327691 TBB393215:TBB393227 TBB458751:TBB458763 TBB524287:TBB524299 TBB589823:TBB589835 TBB655359:TBB655371 TBB720895:TBB720907 TBB786431:TBB786443 TBB851967:TBB851979 TBB917503:TBB917515 TBB983039:TBB983051 TKX65535:TKX65547 TKX131071:TKX131083 TKX196607:TKX196619 TKX262143:TKX262155 TKX327679:TKX327691 TKX393215:TKX393227 TKX458751:TKX458763 TKX524287:TKX524299 TKX589823:TKX589835 TKX655359:TKX655371 TKX720895:TKX720907 TKX786431:TKX786443 TKX851967:TKX851979 TKX917503:TKX917515 TKX983039:TKX983051 TUT65535:TUT65547 TUT131071:TUT131083 TUT196607:TUT196619 TUT262143:TUT262155 TUT327679:TUT327691 TUT393215:TUT393227 TUT458751:TUT458763 TUT524287:TUT524299 TUT589823:TUT589835 TUT655359:TUT655371 TUT720895:TUT720907 TUT786431:TUT786443 TUT851967:TUT851979 TUT917503:TUT917515 TUT983039:TUT983051 UEP65535:UEP65547 UEP131071:UEP131083 UEP196607:UEP196619 UEP262143:UEP262155 UEP327679:UEP327691 UEP393215:UEP393227 UEP458751:UEP458763 UEP524287:UEP524299 UEP589823:UEP589835 UEP655359:UEP655371 UEP720895:UEP720907 UEP786431:UEP786443 UEP851967:UEP851979 UEP917503:UEP917515 UEP983039:UEP983051 UOL65535:UOL65547 UOL131071:UOL131083 UOL196607:UOL196619 UOL262143:UOL262155 UOL327679:UOL327691 UOL393215:UOL393227 UOL458751:UOL458763 UOL524287:UOL524299 UOL589823:UOL589835 UOL655359:UOL655371 UOL720895:UOL720907 UOL786431:UOL786443 UOL851967:UOL851979 UOL917503:UOL917515 UOL983039:UOL983051 UYH65535:UYH65547 UYH131071:UYH131083 UYH196607:UYH196619 UYH262143:UYH262155 UYH327679:UYH327691 UYH393215:UYH393227 UYH458751:UYH458763 UYH524287:UYH524299 UYH589823:UYH589835 UYH655359:UYH655371 UYH720895:UYH720907 UYH786431:UYH786443 UYH851967:UYH851979 UYH917503:UYH917515 UYH983039:UYH983051 VID65535:VID65547 VID131071:VID131083 VID196607:VID196619 VID262143:VID262155 VID327679:VID327691 VID393215:VID393227 VID458751:VID458763 VID524287:VID524299 VID589823:VID589835 VID655359:VID655371 VID720895:VID720907 VID786431:VID786443 VID851967:VID851979 VID917503:VID917515 VID983039:VID983051 VRZ65535:VRZ65547 VRZ131071:VRZ131083 VRZ196607:VRZ196619 VRZ262143:VRZ262155 VRZ327679:VRZ327691 VRZ393215:VRZ393227 VRZ458751:VRZ458763 VRZ524287:VRZ524299 VRZ589823:VRZ589835 VRZ655359:VRZ655371 VRZ720895:VRZ720907 VRZ786431:VRZ786443 VRZ851967:VRZ851979 VRZ917503:VRZ917515 VRZ983039:VRZ983051 WBV65535:WBV65547 WBV131071:WBV131083 WBV196607:WBV196619 WBV262143:WBV262155 WBV327679:WBV327691 WBV393215:WBV393227 WBV458751:WBV458763 WBV524287:WBV524299 WBV589823:WBV589835 WBV655359:WBV655371 WBV720895:WBV720907 WBV786431:WBV786443 WBV851967:WBV851979 WBV917503:WBV917515 WBV983039:WBV983051 WLR65535:WLR65547 WLR131071:WLR131083 WLR196607:WLR196619 WLR262143:WLR262155 WLR327679:WLR327691 WLR393215:WLR393227 WLR458751:WLR458763 WLR524287:WLR524299 WLR589823:WLR589835 WLR655359:WLR655371 WLR720895:WLR720907 WLR786431:WLR786443 WLR851967:WLR851979 WLR917503:WLR917515 WLR983039:WLR983051 WVN983039:WVN983051 WVN65535:WVN65547 WVN131071:WVN131083 WVN196607:WVN196619 WVN262143:WVN262155 WVN327679:WVN327691 WVN393215:WVN393227 WVN458751:WVN458763 WVN524287:WVN524299 WVN589823:WVN589835 WVN655359:WVN655371 WVN720895:WVN720907 WVN786431:WVN786443 WVN851967:WVN851979 WVN917503:WVN917515 WVN4:WVN11 F4:F11 JB4:JB11 SX4:SX11 ACT4:ACT11 AMP4:AMP11 AWL4:AWL11 BGH4:BGH11 BQD4:BQD11 BZZ4:BZZ11 CJV4:CJV11 CTR4:CTR11 DDN4:DDN11 DNJ4:DNJ11 DXF4:DXF11 EHB4:EHB11 EQX4:EQX11 FAT4:FAT11 FKP4:FKP11 FUL4:FUL11 GEH4:GEH11 GOD4:GOD11 GXZ4:GXZ11 HHV4:HHV11 HRR4:HRR11 IBN4:IBN11 ILJ4:ILJ11 IVF4:IVF11 JFB4:JFB11 JOX4:JOX11 JYT4:JYT11 KIP4:KIP11 KSL4:KSL11 LCH4:LCH11 LMD4:LMD11 LVZ4:LVZ11 MFV4:MFV11 MPR4:MPR11 MZN4:MZN11 NJJ4:NJJ11 NTF4:NTF11 ODB4:ODB11 OMX4:OMX11 OWT4:OWT11 PGP4:PGP11 PQL4:PQL11 QAH4:QAH11 QKD4:QKD11 QTZ4:QTZ11 RDV4:RDV11 RNR4:RNR11 RXN4:RXN11 SHJ4:SHJ11 SRF4:SRF11 TBB4:TBB11 TKX4:TKX11 TUT4:TUT11 UEP4:UEP11 UOL4:UOL11 UYH4:UYH11 VID4:VID11 VRZ4:VRZ11 WBV4:WBV11 WLR4:WLR11">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576 I1:I3 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576 JE1:JE1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I11">
+      <formula1>"预发环境,生产环境,公测环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6286,24 +6261,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="7" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="33" customWidth="1"/>
-    <col min="5" max="5" width="35" style="33" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="7" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="31" customWidth="1"/>
+    <col min="5" max="5" width="35" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="32" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="35" customWidth="1"/>
+    <col min="12" max="12" width="9" style="33" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -7127,36 +7102,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -7200,162 +7175,162 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="26" customFormat="1" ht="115.5">
-      <c r="A4" s="46">
+      <c r="A4" s="40">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="47"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1" ht="82.5">
-      <c r="A5" s="46">
+      <c r="A5" s="40">
         <v>2</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="47"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" s="26" customFormat="1" ht="66">
-      <c r="A6" s="46">
+      <c r="A6" s="40">
         <v>3</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="26" customFormat="1" ht="99">
-      <c r="A7" s="46">
+      <c r="A7" s="40">
         <v>4</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="L7" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
@@ -7364,7 +7339,7 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="32"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
@@ -7379,7 +7354,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
@@ -7394,7 +7369,7 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="32"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -7409,7 +7384,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="32"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
@@ -7424,7 +7399,7 @@
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -7437,12 +7412,15 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 ACT4:ACT12 SX4:SX12 JB4:JB12 WVN4:WVN12 AMP4:AMP12 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 F4:F12">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 I1:I3 I13:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
+      <formula1>"预发环境,生产环境,公测环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7451,26 +7429,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="7" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="33" customWidth="1"/>
-    <col min="5" max="5" width="35" style="33" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="7" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="31" customWidth="1"/>
+    <col min="5" max="5" width="35" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="32" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="35" customWidth="1"/>
+    <col min="12" max="12" width="9" style="33" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -8294,36 +8272,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -8366,50 +8344,124 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="115.5">
+      <c r="A4" s="40">
+        <v>1</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="41"/>
+    </row>
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="66">
+      <c r="A5" s="40">
+        <v>3</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="99">
+      <c r="A6" s="40">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
@@ -8418,7 +8470,7 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="32"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
@@ -8433,7 +8485,7 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="32"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
@@ -8448,7 +8500,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
@@ -8463,7 +8515,7 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="32"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -8478,7 +8530,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="32"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
@@ -8486,32 +8538,20 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1048576 I1:I3 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 JB4:JB12 F4:F12 WVN4:WVN12 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65535:F65547 F131071:F131083 F196607:F196619 F262143:F262155 F327679:F327691 F393215:F393227 F458751:F458763 F524287:F524299 F589823:F589835 F655359:F655371 F720895:F720907 F786431:F786443 F851967:F851979 F917503:F917515 F983039:F983051 JB65535:JB65547 JB131071:JB131083 JB196607:JB196619 JB262143:JB262155 JB327679:JB327691 JB393215:JB393227 JB458751:JB458763 JB524287:JB524299 JB589823:JB589835 JB655359:JB655371 JB720895:JB720907 JB786431:JB786443 JB851967:JB851979 JB917503:JB917515 JB983039:JB983051 SX65535:SX65547 SX131071:SX131083 SX196607:SX196619 SX262143:SX262155 SX327679:SX327691 SX393215:SX393227 SX458751:SX458763 SX524287:SX524299 SX589823:SX589835 SX655359:SX655371 SX720895:SX720907 SX786431:SX786443 SX851967:SX851979 SX917503:SX917515 SX983039:SX983051 ACT65535:ACT65547 ACT131071:ACT131083 ACT196607:ACT196619 ACT262143:ACT262155 ACT327679:ACT327691 ACT393215:ACT393227 ACT458751:ACT458763 ACT524287:ACT524299 ACT589823:ACT589835 ACT655359:ACT655371 ACT720895:ACT720907 ACT786431:ACT786443 ACT851967:ACT851979 ACT917503:ACT917515 ACT983039:ACT983051 AMP65535:AMP65547 AMP131071:AMP131083 AMP196607:AMP196619 AMP262143:AMP262155 AMP327679:AMP327691 AMP393215:AMP393227 AMP458751:AMP458763 AMP524287:AMP524299 AMP589823:AMP589835 AMP655359:AMP655371 AMP720895:AMP720907 AMP786431:AMP786443 AMP851967:AMP851979 AMP917503:AMP917515 AMP983039:AMP983051 AWL65535:AWL65547 AWL131071:AWL131083 AWL196607:AWL196619 AWL262143:AWL262155 AWL327679:AWL327691 AWL393215:AWL393227 AWL458751:AWL458763 AWL524287:AWL524299 AWL589823:AWL589835 AWL655359:AWL655371 AWL720895:AWL720907 AWL786431:AWL786443 AWL851967:AWL851979 AWL917503:AWL917515 AWL983039:AWL983051 BGH65535:BGH65547 BGH131071:BGH131083 BGH196607:BGH196619 BGH262143:BGH262155 BGH327679:BGH327691 BGH393215:BGH393227 BGH458751:BGH458763 BGH524287:BGH524299 BGH589823:BGH589835 BGH655359:BGH655371 BGH720895:BGH720907 BGH786431:BGH786443 BGH851967:BGH851979 BGH917503:BGH917515 BGH983039:BGH983051 BQD65535:BQD65547 BQD131071:BQD131083 BQD196607:BQD196619 BQD262143:BQD262155 BQD327679:BQD327691 BQD393215:BQD393227 BQD458751:BQD458763 BQD524287:BQD524299 BQD589823:BQD589835 BQD655359:BQD655371 BQD720895:BQD720907 BQD786431:BQD786443 BQD851967:BQD851979 BQD917503:BQD917515 BQD983039:BQD983051 BZZ65535:BZZ65547 BZZ131071:BZZ131083 BZZ196607:BZZ196619 BZZ262143:BZZ262155 BZZ327679:BZZ327691 BZZ393215:BZZ393227 BZZ458751:BZZ458763 BZZ524287:BZZ524299 BZZ589823:BZZ589835 BZZ655359:BZZ655371 BZZ720895:BZZ720907 BZZ786431:BZZ786443 BZZ851967:BZZ851979 BZZ917503:BZZ917515 BZZ983039:BZZ983051 CJV65535:CJV65547 CJV131071:CJV131083 CJV196607:CJV196619 CJV262143:CJV262155 CJV327679:CJV327691 CJV393215:CJV393227 CJV458751:CJV458763 CJV524287:CJV524299 CJV589823:CJV589835 CJV655359:CJV655371 CJV720895:CJV720907 CJV786431:CJV786443 CJV851967:CJV851979 CJV917503:CJV917515 CJV983039:CJV983051 CTR65535:CTR65547 CTR131071:CTR131083 CTR196607:CTR196619 CTR262143:CTR262155 CTR327679:CTR327691 CTR393215:CTR393227 CTR458751:CTR458763 CTR524287:CTR524299 CTR589823:CTR589835 CTR655359:CTR655371 CTR720895:CTR720907 CTR786431:CTR786443 CTR851967:CTR851979 CTR917503:CTR917515 CTR983039:CTR983051 DDN65535:DDN65547 DDN131071:DDN131083 DDN196607:DDN196619 DDN262143:DDN262155 DDN327679:DDN327691 DDN393215:DDN393227 DDN458751:DDN458763 DDN524287:DDN524299 DDN589823:DDN589835 DDN655359:DDN655371 DDN720895:DDN720907 DDN786431:DDN786443 DDN851967:DDN851979 DDN917503:DDN917515 DDN983039:DDN983051 DNJ65535:DNJ65547 DNJ131071:DNJ131083 DNJ196607:DNJ196619 DNJ262143:DNJ262155 DNJ327679:DNJ327691 DNJ393215:DNJ393227 DNJ458751:DNJ458763 DNJ524287:DNJ524299 DNJ589823:DNJ589835 DNJ655359:DNJ655371 DNJ720895:DNJ720907 DNJ786431:DNJ786443 DNJ851967:DNJ851979 DNJ917503:DNJ917515 DNJ983039:DNJ983051 DXF65535:DXF65547 DXF131071:DXF131083 DXF196607:DXF196619 DXF262143:DXF262155 DXF327679:DXF327691 DXF393215:DXF393227 DXF458751:DXF458763 DXF524287:DXF524299 DXF589823:DXF589835 DXF655359:DXF655371 DXF720895:DXF720907 DXF786431:DXF786443 DXF851967:DXF851979 DXF917503:DXF917515 DXF983039:DXF983051 EHB65535:EHB65547 EHB131071:EHB131083 EHB196607:EHB196619 EHB262143:EHB262155 EHB327679:EHB327691 EHB393215:EHB393227 EHB458751:EHB458763 EHB524287:EHB524299 EHB589823:EHB589835 EHB655359:EHB655371 EHB720895:EHB720907 EHB786431:EHB786443 EHB851967:EHB851979 EHB917503:EHB917515 EHB983039:EHB983051 EQX65535:EQX65547 EQX131071:EQX131083 EQX196607:EQX196619 EQX262143:EQX262155 EQX327679:EQX327691 EQX393215:EQX393227 EQX458751:EQX458763 EQX524287:EQX524299 EQX589823:EQX589835 EQX655359:EQX655371 EQX720895:EQX720907 EQX786431:EQX786443 EQX851967:EQX851979 EQX917503:EQX917515 EQX983039:EQX983051 FAT65535:FAT65547 FAT131071:FAT131083 FAT196607:FAT196619 FAT262143:FAT262155 FAT327679:FAT327691 FAT393215:FAT393227 FAT458751:FAT458763 FAT524287:FAT524299 FAT589823:FAT589835 FAT655359:FAT655371 FAT720895:FAT720907 FAT786431:FAT786443 FAT851967:FAT851979 FAT917503:FAT917515 FAT983039:FAT983051 FKP65535:FKP65547 FKP131071:FKP131083 FKP196607:FKP196619 FKP262143:FKP262155 FKP327679:FKP327691 FKP393215:FKP393227 FKP458751:FKP458763 FKP524287:FKP524299 FKP589823:FKP589835 FKP655359:FKP655371 FKP720895:FKP720907 FKP786431:FKP786443 FKP851967:FKP851979 FKP917503:FKP917515 FKP983039:FKP983051 FUL65535:FUL65547 FUL131071:FUL131083 FUL196607:FUL196619 FUL262143:FUL262155 FUL327679:FUL327691 FUL393215:FUL393227 FUL458751:FUL458763 FUL524287:FUL524299 FUL589823:FUL589835 FUL655359:FUL655371 FUL720895:FUL720907 FUL786431:FUL786443 FUL851967:FUL851979 FUL917503:FUL917515 FUL983039:FUL983051 GEH65535:GEH65547 GEH131071:GEH131083 GEH196607:GEH196619 GEH262143:GEH262155 GEH327679:GEH327691 GEH393215:GEH393227 GEH458751:GEH458763 GEH524287:GEH524299 GEH589823:GEH589835 GEH655359:GEH655371 GEH720895:GEH720907 GEH786431:GEH786443 GEH851967:GEH851979 GEH917503:GEH917515 GEH983039:GEH983051 GOD65535:GOD65547 GOD131071:GOD131083 GOD196607:GOD196619 GOD262143:GOD262155 GOD327679:GOD327691 GOD393215:GOD393227 GOD458751:GOD458763 GOD524287:GOD524299 GOD589823:GOD589835 GOD655359:GOD655371 GOD720895:GOD720907 GOD786431:GOD786443 GOD851967:GOD851979 GOD917503:GOD917515 GOD983039:GOD983051 GXZ65535:GXZ65547 GXZ131071:GXZ131083 GXZ196607:GXZ196619 GXZ262143:GXZ262155 GXZ327679:GXZ327691 GXZ393215:GXZ393227 GXZ458751:GXZ458763 GXZ524287:GXZ524299 GXZ589823:GXZ589835 GXZ655359:GXZ655371 GXZ720895:GXZ720907 GXZ786431:GXZ786443 GXZ851967:GXZ851979 GXZ917503:GXZ917515 GXZ983039:GXZ983051 HHV65535:HHV65547 HHV131071:HHV131083 HHV196607:HHV196619 HHV262143:HHV262155 HHV327679:HHV327691 HHV393215:HHV393227 HHV458751:HHV458763 HHV524287:HHV524299 HHV589823:HHV589835 HHV655359:HHV655371 HHV720895:HHV720907 HHV786431:HHV786443 HHV851967:HHV851979 HHV917503:HHV917515 HHV983039:HHV983051 HRR65535:HRR65547 HRR131071:HRR131083 HRR196607:HRR196619 HRR262143:HRR262155 HRR327679:HRR327691 HRR393215:HRR393227 HRR458751:HRR458763 HRR524287:HRR524299 HRR589823:HRR589835 HRR655359:HRR655371 HRR720895:HRR720907 HRR786431:HRR786443 HRR851967:HRR851979 HRR917503:HRR917515 HRR983039:HRR983051 IBN65535:IBN65547 IBN131071:IBN131083 IBN196607:IBN196619 IBN262143:IBN262155 IBN327679:IBN327691 IBN393215:IBN393227 IBN458751:IBN458763 IBN524287:IBN524299 IBN589823:IBN589835 IBN655359:IBN655371 IBN720895:IBN720907 IBN786431:IBN786443 IBN851967:IBN851979 IBN917503:IBN917515 IBN983039:IBN983051 ILJ65535:ILJ65547 ILJ131071:ILJ131083 ILJ196607:ILJ196619 ILJ262143:ILJ262155 ILJ327679:ILJ327691 ILJ393215:ILJ393227 ILJ458751:ILJ458763 ILJ524287:ILJ524299 ILJ589823:ILJ589835 ILJ655359:ILJ655371 ILJ720895:ILJ720907 ILJ786431:ILJ786443 ILJ851967:ILJ851979 ILJ917503:ILJ917515 ILJ983039:ILJ983051 IVF65535:IVF65547 IVF131071:IVF131083 IVF196607:IVF196619 IVF262143:IVF262155 IVF327679:IVF327691 IVF393215:IVF393227 IVF458751:IVF458763 IVF524287:IVF524299 IVF589823:IVF589835 IVF655359:IVF655371 IVF720895:IVF720907 IVF786431:IVF786443 IVF851967:IVF851979 IVF917503:IVF917515 IVF983039:IVF983051 JFB65535:JFB65547 JFB131071:JFB131083 JFB196607:JFB196619 JFB262143:JFB262155 JFB327679:JFB327691 JFB393215:JFB393227 JFB458751:JFB458763 JFB524287:JFB524299 JFB589823:JFB589835 JFB655359:JFB655371 JFB720895:JFB720907 JFB786431:JFB786443 JFB851967:JFB851979 JFB917503:JFB917515 JFB983039:JFB983051 JOX65535:JOX65547 JOX131071:JOX131083 JOX196607:JOX196619 JOX262143:JOX262155 JOX327679:JOX327691 JOX393215:JOX393227 JOX458751:JOX458763 JOX524287:JOX524299 JOX589823:JOX589835 JOX655359:JOX655371 JOX720895:JOX720907 JOX786431:JOX786443 JOX851967:JOX851979 JOX917503:JOX917515 JOX983039:JOX983051 JYT65535:JYT65547 JYT131071:JYT131083 JYT196607:JYT196619 JYT262143:JYT262155 JYT327679:JYT327691 JYT393215:JYT393227 JYT458751:JYT458763 JYT524287:JYT524299 JYT589823:JYT589835 JYT655359:JYT655371 JYT720895:JYT720907 JYT786431:JYT786443 JYT851967:JYT851979 JYT917503:JYT917515 JYT983039:JYT983051 KIP65535:KIP65547 KIP131071:KIP131083 KIP196607:KIP196619 KIP262143:KIP262155 KIP327679:KIP327691 KIP393215:KIP393227 KIP458751:KIP458763 KIP524287:KIP524299 KIP589823:KIP589835 KIP655359:KIP655371 KIP720895:KIP720907 KIP786431:KIP786443 KIP851967:KIP851979 KIP917503:KIP917515 KIP983039:KIP983051 KSL65535:KSL65547 KSL131071:KSL131083 KSL196607:KSL196619 KSL262143:KSL262155 KSL327679:KSL327691 KSL393215:KSL393227 KSL458751:KSL458763 KSL524287:KSL524299 KSL589823:KSL589835 KSL655359:KSL655371 KSL720895:KSL720907 KSL786431:KSL786443 KSL851967:KSL851979 KSL917503:KSL917515 KSL983039:KSL983051 LCH65535:LCH65547 LCH131071:LCH131083 LCH196607:LCH196619 LCH262143:LCH262155 LCH327679:LCH327691 LCH393215:LCH393227 LCH458751:LCH458763 LCH524287:LCH524299 LCH589823:LCH589835 LCH655359:LCH655371 LCH720895:LCH720907 LCH786431:LCH786443 LCH851967:LCH851979 LCH917503:LCH917515 LCH983039:LCH983051 LMD65535:LMD65547 LMD131071:LMD131083 LMD196607:LMD196619 LMD262143:LMD262155 LMD327679:LMD327691 LMD393215:LMD393227 LMD458751:LMD458763 LMD524287:LMD524299 LMD589823:LMD589835 LMD655359:LMD655371 LMD720895:LMD720907 LMD786431:LMD786443 LMD851967:LMD851979 LMD917503:LMD917515 LMD983039:LMD983051 LVZ65535:LVZ65547 LVZ131071:LVZ131083 LVZ196607:LVZ196619 LVZ262143:LVZ262155 LVZ327679:LVZ327691 LVZ393215:LVZ393227 LVZ458751:LVZ458763 LVZ524287:LVZ524299 LVZ589823:LVZ589835 LVZ655359:LVZ655371 LVZ720895:LVZ720907 LVZ786431:LVZ786443 LVZ851967:LVZ851979 LVZ917503:LVZ917515 LVZ983039:LVZ983051 MFV65535:MFV65547 MFV131071:MFV131083 MFV196607:MFV196619 MFV262143:MFV262155 MFV327679:MFV327691 MFV393215:MFV393227 MFV458751:MFV458763 MFV524287:MFV524299 MFV589823:MFV589835 MFV655359:MFV655371 MFV720895:MFV720907 MFV786431:MFV786443 MFV851967:MFV851979 MFV917503:MFV917515 MFV983039:MFV983051 MPR65535:MPR65547 MPR131071:MPR131083 MPR196607:MPR196619 MPR262143:MPR262155 MPR327679:MPR327691 MPR393215:MPR393227 MPR458751:MPR458763 MPR524287:MPR524299 MPR589823:MPR589835 MPR655359:MPR655371 MPR720895:MPR720907 MPR786431:MPR786443 MPR851967:MPR851979 MPR917503:MPR917515 MPR983039:MPR983051 MZN65535:MZN65547 MZN131071:MZN131083 MZN196607:MZN196619 MZN262143:MZN262155 MZN327679:MZN327691 MZN393215:MZN393227 MZN458751:MZN458763 MZN524287:MZN524299 MZN589823:MZN589835 MZN655359:MZN655371 MZN720895:MZN720907 MZN786431:MZN786443 MZN851967:MZN851979 MZN917503:MZN917515 MZN983039:MZN983051 NJJ65535:NJJ65547 NJJ131071:NJJ131083 NJJ196607:NJJ196619 NJJ262143:NJJ262155 NJJ327679:NJJ327691 NJJ393215:NJJ393227 NJJ458751:NJJ458763 NJJ524287:NJJ524299 NJJ589823:NJJ589835 NJJ655359:NJJ655371 NJJ720895:NJJ720907 NJJ786431:NJJ786443 NJJ851967:NJJ851979 NJJ917503:NJJ917515 NJJ983039:NJJ983051 NTF65535:NTF65547 NTF131071:NTF131083 NTF196607:NTF196619 NTF262143:NTF262155 NTF327679:NTF327691 NTF393215:NTF393227 NTF458751:NTF458763 NTF524287:NTF524299 NTF589823:NTF589835 NTF655359:NTF655371 NTF720895:NTF720907 NTF786431:NTF786443 NTF851967:NTF851979 NTF917503:NTF917515 NTF983039:NTF983051 ODB65535:ODB65547 ODB131071:ODB131083 ODB196607:ODB196619 ODB262143:ODB262155 ODB327679:ODB327691 ODB393215:ODB393227 ODB458751:ODB458763 ODB524287:ODB524299 ODB589823:ODB589835 ODB655359:ODB655371 ODB720895:ODB720907 ODB786431:ODB786443 ODB851967:ODB851979 ODB917503:ODB917515 ODB983039:ODB983051 OMX65535:OMX65547 OMX131071:OMX131083 OMX196607:OMX196619 OMX262143:OMX262155 OMX327679:OMX327691 OMX393215:OMX393227 OMX458751:OMX458763 OMX524287:OMX524299 OMX589823:OMX589835 OMX655359:OMX655371 OMX720895:OMX720907 OMX786431:OMX786443 OMX851967:OMX851979 OMX917503:OMX917515 OMX983039:OMX983051 OWT65535:OWT65547 OWT131071:OWT131083 OWT196607:OWT196619 OWT262143:OWT262155 OWT327679:OWT327691 OWT393215:OWT393227 OWT458751:OWT458763 OWT524287:OWT524299 OWT589823:OWT589835 OWT655359:OWT655371 OWT720895:OWT720907 OWT786431:OWT786443 OWT851967:OWT851979 OWT917503:OWT917515 OWT983039:OWT983051 PGP65535:PGP65547 PGP131071:PGP131083 PGP196607:PGP196619 PGP262143:PGP262155 PGP327679:PGP327691 PGP393215:PGP393227 PGP458751:PGP458763 PGP524287:PGP524299 PGP589823:PGP589835 PGP655359:PGP655371 PGP720895:PGP720907 PGP786431:PGP786443 PGP851967:PGP851979 PGP917503:PGP917515 PGP983039:PGP983051 PQL65535:PQL65547 PQL131071:PQL131083 PQL196607:PQL196619 PQL262143:PQL262155 PQL327679:PQL327691 PQL393215:PQL393227 PQL458751:PQL458763 PQL524287:PQL524299 PQL589823:PQL589835 PQL655359:PQL655371 PQL720895:PQL720907 PQL786431:PQL786443 PQL851967:PQL851979 PQL917503:PQL917515 PQL983039:PQL983051 QAH65535:QAH65547 QAH131071:QAH131083 QAH196607:QAH196619 QAH262143:QAH262155 QAH327679:QAH327691 QAH393215:QAH393227 QAH458751:QAH458763 QAH524287:QAH524299 QAH589823:QAH589835 QAH655359:QAH655371 QAH720895:QAH720907 QAH786431:QAH786443 QAH851967:QAH851979 QAH917503:QAH917515 QAH983039:QAH983051 QKD65535:QKD65547 QKD131071:QKD131083 QKD196607:QKD196619 QKD262143:QKD262155 QKD327679:QKD327691 QKD393215:QKD393227 QKD458751:QKD458763 QKD524287:QKD524299 QKD589823:QKD589835 QKD655359:QKD655371 QKD720895:QKD720907 QKD786431:QKD786443 QKD851967:QKD851979 QKD917503:QKD917515 QKD983039:QKD983051 QTZ65535:QTZ65547 QTZ131071:QTZ131083 QTZ196607:QTZ196619 QTZ262143:QTZ262155 QTZ327679:QTZ327691 QTZ393215:QTZ393227 QTZ458751:QTZ458763 QTZ524287:QTZ524299 QTZ589823:QTZ589835 QTZ655359:QTZ655371 QTZ720895:QTZ720907 QTZ786431:QTZ786443 QTZ851967:QTZ851979 QTZ917503:QTZ917515 QTZ983039:QTZ983051 RDV65535:RDV65547 RDV131071:RDV131083 RDV196607:RDV196619 RDV262143:RDV262155 RDV327679:RDV327691 RDV393215:RDV393227 RDV458751:RDV458763 RDV524287:RDV524299 RDV589823:RDV589835 RDV655359:RDV655371 RDV720895:RDV720907 RDV786431:RDV786443 RDV851967:RDV851979 RDV917503:RDV917515 RDV983039:RDV983051 RNR65535:RNR65547 RNR131071:RNR131083 RNR196607:RNR196619 RNR262143:RNR262155 RNR327679:RNR327691 RNR393215:RNR393227 RNR458751:RNR458763 RNR524287:RNR524299 RNR589823:RNR589835 RNR655359:RNR655371 RNR720895:RNR720907 RNR786431:RNR786443 RNR851967:RNR851979 RNR917503:RNR917515 RNR983039:RNR983051 RXN65535:RXN65547 RXN131071:RXN131083 RXN196607:RXN196619 RXN262143:RXN262155 RXN327679:RXN327691 RXN393215:RXN393227 RXN458751:RXN458763 RXN524287:RXN524299 RXN589823:RXN589835 RXN655359:RXN655371 RXN720895:RXN720907 RXN786431:RXN786443 RXN851967:RXN851979 RXN917503:RXN917515 RXN983039:RXN983051 SHJ65535:SHJ65547 SHJ131071:SHJ131083 SHJ196607:SHJ196619 SHJ262143:SHJ262155 SHJ327679:SHJ327691 SHJ393215:SHJ393227 SHJ458751:SHJ458763 SHJ524287:SHJ524299 SHJ589823:SHJ589835 SHJ655359:SHJ655371 SHJ720895:SHJ720907 SHJ786431:SHJ786443 SHJ851967:SHJ851979 SHJ917503:SHJ917515 SHJ983039:SHJ983051 SRF65535:SRF65547 SRF131071:SRF131083 SRF196607:SRF196619 SRF262143:SRF262155 SRF327679:SRF327691 SRF393215:SRF393227 SRF458751:SRF458763 SRF524287:SRF524299 SRF589823:SRF589835 SRF655359:SRF655371 SRF720895:SRF720907 SRF786431:SRF786443 SRF851967:SRF851979 SRF917503:SRF917515 SRF983039:SRF983051 TBB65535:TBB65547 TBB131071:TBB131083 TBB196607:TBB196619 TBB262143:TBB262155 TBB327679:TBB327691 TBB393215:TBB393227 TBB458751:TBB458763 TBB524287:TBB524299 TBB589823:TBB589835 TBB655359:TBB655371 TBB720895:TBB720907 TBB786431:TBB786443 TBB851967:TBB851979 TBB917503:TBB917515 TBB983039:TBB983051 TKX65535:TKX65547 TKX131071:TKX131083 TKX196607:TKX196619 TKX262143:TKX262155 TKX327679:TKX327691 TKX393215:TKX393227 TKX458751:TKX458763 TKX524287:TKX524299 TKX589823:TKX589835 TKX655359:TKX655371 TKX720895:TKX720907 TKX786431:TKX786443 TKX851967:TKX851979 TKX917503:TKX917515 TKX983039:TKX983051 TUT65535:TUT65547 TUT131071:TUT131083 TUT196607:TUT196619 TUT262143:TUT262155 TUT327679:TUT327691 TUT393215:TUT393227 TUT458751:TUT458763 TUT524287:TUT524299 TUT589823:TUT589835 TUT655359:TUT655371 TUT720895:TUT720907 TUT786431:TUT786443 TUT851967:TUT851979 TUT917503:TUT917515 TUT983039:TUT983051 UEP65535:UEP65547 UEP131071:UEP131083 UEP196607:UEP196619 UEP262143:UEP262155 UEP327679:UEP327691 UEP393215:UEP393227 UEP458751:UEP458763 UEP524287:UEP524299 UEP589823:UEP589835 UEP655359:UEP655371 UEP720895:UEP720907 UEP786431:UEP786443 UEP851967:UEP851979 UEP917503:UEP917515 UEP983039:UEP983051 UOL65535:UOL65547 UOL131071:UOL131083 UOL196607:UOL196619 UOL262143:UOL262155 UOL327679:UOL327691 UOL393215:UOL393227 UOL458751:UOL458763 UOL524287:UOL524299 UOL589823:UOL589835 UOL655359:UOL655371 UOL720895:UOL720907 UOL786431:UOL786443 UOL851967:UOL851979 UOL917503:UOL917515 UOL983039:UOL983051 UYH65535:UYH65547 UYH131071:UYH131083 UYH196607:UYH196619 UYH262143:UYH262155 UYH327679:UYH327691 UYH393215:UYH393227 UYH458751:UYH458763 UYH524287:UYH524299 UYH589823:UYH589835 UYH655359:UYH655371 UYH720895:UYH720907 UYH786431:UYH786443 UYH851967:UYH851979 UYH917503:UYH917515 UYH983039:UYH983051 VID65535:VID65547 VID131071:VID131083 VID196607:VID196619 VID262143:VID262155 VID327679:VID327691 VID393215:VID393227 VID458751:VID458763 VID524287:VID524299 VID589823:VID589835 VID655359:VID655371 VID720895:VID720907 VID786431:VID786443 VID851967:VID851979 VID917503:VID917515 VID983039:VID983051 VRZ65535:VRZ65547 VRZ131071:VRZ131083 VRZ196607:VRZ196619 VRZ262143:VRZ262155 VRZ327679:VRZ327691 VRZ393215:VRZ393227 VRZ458751:VRZ458763 VRZ524287:VRZ524299 VRZ589823:VRZ589835 VRZ655359:VRZ655371 VRZ720895:VRZ720907 VRZ786431:VRZ786443 VRZ851967:VRZ851979 VRZ917503:VRZ917515 VRZ983039:VRZ983051 WBV65535:WBV65547 WBV131071:WBV131083 WBV196607:WBV196619 WBV262143:WBV262155 WBV327679:WBV327691 WBV393215:WBV393227 WBV458751:WBV458763 WBV524287:WBV524299 WBV589823:WBV589835 WBV655359:WBV655371 WBV720895:WBV720907 WBV786431:WBV786443 WBV851967:WBV851979 WBV917503:WBV917515 WBV983039:WBV983051 WLR65535:WLR65547 WLR131071:WLR131083 WLR196607:WLR196619 WLR262143:WLR262155 WLR327679:WLR327691 WLR393215:WLR393227 WLR458751:WLR458763 WLR524287:WLR524299 WLR589823:WLR589835 WLR655359:WLR655371 WLR720895:WLR720907 WLR786431:WLR786443 WLR851967:WLR851979 WLR917503:WLR917515 WLR983039:WLR983051 WVN983039:WVN983051 WVN65535:WVN65547 WVN131071:WVN131083 WVN196607:WVN196619 WVN262143:WVN262155 WVN327679:WVN327691 WVN393215:WVN393227 WVN458751:WVN458763 WVN524287:WVN524299 WVN589823:WVN589835 WVN655359:WVN655371 WVN720895:WVN720907 WVN786431:WVN786443 WVN851967:WVN851979 WVN917503:WVN917515 JB4:JB11 SX4:SX11 ACT4:ACT11 AMP4:AMP11 AWL4:AWL11 BGH4:BGH11 BQD4:BQD11 BZZ4:BZZ11 CJV4:CJV11 CTR4:CTR11 DDN4:DDN11 DNJ4:DNJ11 DXF4:DXF11 EHB4:EHB11 EQX4:EQX11 FAT4:FAT11 FKP4:FKP11 FUL4:FUL11 GEH4:GEH11 GOD4:GOD11 GXZ4:GXZ11 HHV4:HHV11 HRR4:HRR11 IBN4:IBN11 ILJ4:ILJ11 IVF4:IVF11 JFB4:JFB11 JOX4:JOX11 JYT4:JYT11 KIP4:KIP11 KSL4:KSL11 LCH4:LCH11 LMD4:LMD11 LVZ4:LVZ11 MFV4:MFV11 MPR4:MPR11 MZN4:MZN11 NJJ4:NJJ11 NTF4:NTF11 ODB4:ODB11 OMX4:OMX11 OWT4:OWT11 PGP4:PGP11 PQL4:PQL11 QAH4:QAH11 QKD4:QKD11 QTZ4:QTZ11 RDV4:RDV11 RNR4:RNR11 RXN4:RXN11 SHJ4:SHJ11 SRF4:SRF11 TBB4:TBB11 TKX4:TKX11 TUT4:TUT11 UEP4:UEP11 UOL4:UOL11 UYH4:UYH11 VID4:VID11 VRZ4:VRZ11 WBV4:WBV11 WLR4:WLR11 WVN4:WVN11 F4:F11">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6">
+      <formula1>"预发环境,生产环境,公测环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_EQ组.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="版本5.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.0.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="BS权限配置" sheetId="3" r:id="rId2"/>
     <sheet name="数据修复" sheetId="2" r:id="rId3"/>
     <sheet name="(预发布)需要修改的配置文件" sheetId="6" r:id="rId4"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="98">
   <si>
     <t>No</t>
   </si>
@@ -558,20 +558,12 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>预发环境</t>
-  </si>
-  <si>
-    <t>公测环境</t>
-  </si>
-  <si>
-    <t>配置值为从库DB
-没有从库配置预发主库即可</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置值为从库DB
-没有从库配置公测主库即可</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>修复新增优选品牌，优选品牌主页房源显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -693,7 +685,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -857,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -947,6 +938,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1355,13 +1352,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T145"/>
+  <dimension ref="A1:T146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1452,7 +1449,7 @@
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1492,46 +1489,46 @@
       <c r="O2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
-      <c r="A3" s="7">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>58</v>
+      <c r="B3" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="F3" s="11">
         <v>42663</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="11">
         <v>42663</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="12" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>50</v>
@@ -1542,17 +1539,18 @@
       <c r="O3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="4"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="16.5">
-      <c r="A4" s="7">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>59</v>
+      <c r="B4" s="41" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>53</v>
@@ -1600,14 +1598,14 @@
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>60</v>
+      <c r="B5" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>44</v>
@@ -1623,13 +1621,13 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>50</v>
@@ -1645,12 +1643,12 @@
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="33">
+    <row r="6" spans="1:20" ht="16.5">
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>69</v>
+      <c r="B6" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>53</v>
@@ -1678,7 +1676,7 @@
         <v>46</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>50</v>
@@ -1694,12 +1692,12 @@
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5">
-      <c r="A7" s="7">
+    <row r="7" spans="1:20" ht="33">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>72</v>
+      <c r="B7" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>53</v>
@@ -1721,13 +1719,13 @@
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>50</v>
@@ -1744,11 +1742,11 @@
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5">
-      <c r="A8" s="7">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>70</v>
+      <c r="B8" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>53</v>
@@ -1776,7 +1774,7 @@
         <v>46</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>50</v>
@@ -1796,14 +1794,14 @@
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>61</v>
+      <c r="B9" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>44</v>
@@ -1819,7 +1817,7 @@
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>46</v>
@@ -1845,8 +1843,8 @@
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>57</v>
+      <c r="B10" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>53</v>
@@ -1868,13 +1866,13 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="12" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>50</v>
@@ -1891,17 +1889,17 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:20" ht="16.5">
-      <c r="A11" s="7">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>62</v>
+      <c r="B11" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>44</v>
@@ -1917,13 +1915,13 @@
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="12" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>50</v>
@@ -1940,17 +1938,17 @@
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:20" ht="16.5">
-      <c r="A12" s="7">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>63</v>
+      <c r="B12" s="41" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>44</v>
@@ -1966,13 +1964,13 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>50</v>
@@ -1989,21 +1987,49 @@
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:20" ht="16.5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="11">
+        <v>42663</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="11">
+        <v>42663</v>
+      </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="11">
+        <v>42667</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -2011,20 +2037,20 @@
     </row>
     <row r="14" spans="1:20" ht="16.5">
       <c r="A14" s="7"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="6"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -2437,7 +2463,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="5"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="5"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="6"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -4062,6 +4088,9 @@
       <c r="M111" s="7"/>
       <c r="N111" s="5"/>
       <c r="O111" s="4"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
     <row r="112" spans="1:19" ht="16.5">
@@ -4572,7 +4601,7 @@
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
+      <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="5"/>
       <c r="G140" s="7"/>
@@ -4614,20 +4643,20 @@
       <c r="G142" s="7"/>
       <c r="H142" s="5"/>
       <c r="I142" s="6"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
       <c r="N142" s="5"/>
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" ht="16.5">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
+      <c r="E143" s="10"/>
       <c r="F143" s="5"/>
       <c r="G143" s="7"/>
       <c r="H143" s="5"/>
@@ -4675,6 +4704,24 @@
       <c r="N145" s="5"/>
       <c r="O145" s="4"/>
       <c r="S145" s="4"/>
+    </row>
+    <row r="146" spans="1:19">
+      <c r="A146" s="7"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="4"/>
+      <c r="S146" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4699,28 +4746,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -5127,26 +5174,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="7" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="31" customWidth="1"/>
-    <col min="5" max="5" width="35" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="7" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="33" customWidth="1"/>
+    <col min="5" max="5" width="35" style="33" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="33" customWidth="1"/>
     <col min="8" max="8" width="25.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="35" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="33" customWidth="1"/>
+    <col min="12" max="12" width="9" style="35" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -5970,36 +6017,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -6020,10 +6067,10 @@
       <c r="F3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="40" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="24" t="s">
@@ -6042,139 +6089,163 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="43" customFormat="1" ht="115.5">
-      <c r="A4" s="40">
+    <row r="4" spans="1:13" s="45" customFormat="1" ht="115.5">
+      <c r="A4" s="42">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="41" t="s">
+      <c r="I4" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="1:13" s="43" customFormat="1" ht="66">
-      <c r="A5" s="40">
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" s="45" customFormat="1" ht="82.5">
+      <c r="A5" s="42">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:13" s="45" customFormat="1" ht="66">
+      <c r="A6" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B6" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C6" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D6" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E6" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F6" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G6" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H6" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="41" t="s">
+      <c r="I6" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K6" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L6" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="43" customFormat="1" ht="99">
-      <c r="A6" s="40">
+      <c r="M6" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="45" customFormat="1" ht="99">
+      <c r="A7" s="42">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D7" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E7" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F7" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G7" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H7" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="41" t="s">
+      <c r="I7" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K7" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L7" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="41"/>
-    </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="M7" s="43"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
@@ -6183,8 +6254,8 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="34"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
@@ -6198,8 +6269,8 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="34"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -6213,8 +6284,8 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="34"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -6228,28 +6299,40 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65535:F65547 F131071:F131083 F196607:F196619 F262143:F262155 F327679:F327691 F393215:F393227 F458751:F458763 F524287:F524299 F589823:F589835 F655359:F655371 F720895:F720907 F786431:F786443 F851967:F851979 F917503:F917515 F983039:F983051 JB65535:JB65547 JB131071:JB131083 JB196607:JB196619 JB262143:JB262155 JB327679:JB327691 JB393215:JB393227 JB458751:JB458763 JB524287:JB524299 JB589823:JB589835 JB655359:JB655371 JB720895:JB720907 JB786431:JB786443 JB851967:JB851979 JB917503:JB917515 JB983039:JB983051 SX65535:SX65547 SX131071:SX131083 SX196607:SX196619 SX262143:SX262155 SX327679:SX327691 SX393215:SX393227 SX458751:SX458763 SX524287:SX524299 SX589823:SX589835 SX655359:SX655371 SX720895:SX720907 SX786431:SX786443 SX851967:SX851979 SX917503:SX917515 SX983039:SX983051 ACT65535:ACT65547 ACT131071:ACT131083 ACT196607:ACT196619 ACT262143:ACT262155 ACT327679:ACT327691 ACT393215:ACT393227 ACT458751:ACT458763 ACT524287:ACT524299 ACT589823:ACT589835 ACT655359:ACT655371 ACT720895:ACT720907 ACT786431:ACT786443 ACT851967:ACT851979 ACT917503:ACT917515 ACT983039:ACT983051 AMP65535:AMP65547 AMP131071:AMP131083 AMP196607:AMP196619 AMP262143:AMP262155 AMP327679:AMP327691 AMP393215:AMP393227 AMP458751:AMP458763 AMP524287:AMP524299 AMP589823:AMP589835 AMP655359:AMP655371 AMP720895:AMP720907 AMP786431:AMP786443 AMP851967:AMP851979 AMP917503:AMP917515 AMP983039:AMP983051 AWL65535:AWL65547 AWL131071:AWL131083 AWL196607:AWL196619 AWL262143:AWL262155 AWL327679:AWL327691 AWL393215:AWL393227 AWL458751:AWL458763 AWL524287:AWL524299 AWL589823:AWL589835 AWL655359:AWL655371 AWL720895:AWL720907 AWL786431:AWL786443 AWL851967:AWL851979 AWL917503:AWL917515 AWL983039:AWL983051 BGH65535:BGH65547 BGH131071:BGH131083 BGH196607:BGH196619 BGH262143:BGH262155 BGH327679:BGH327691 BGH393215:BGH393227 BGH458751:BGH458763 BGH524287:BGH524299 BGH589823:BGH589835 BGH655359:BGH655371 BGH720895:BGH720907 BGH786431:BGH786443 BGH851967:BGH851979 BGH917503:BGH917515 BGH983039:BGH983051 BQD65535:BQD65547 BQD131071:BQD131083 BQD196607:BQD196619 BQD262143:BQD262155 BQD327679:BQD327691 BQD393215:BQD393227 BQD458751:BQD458763 BQD524287:BQD524299 BQD589823:BQD589835 BQD655359:BQD655371 BQD720895:BQD720907 BQD786431:BQD786443 BQD851967:BQD851979 BQD917503:BQD917515 BQD983039:BQD983051 BZZ65535:BZZ65547 BZZ131071:BZZ131083 BZZ196607:BZZ196619 BZZ262143:BZZ262155 BZZ327679:BZZ327691 BZZ393215:BZZ393227 BZZ458751:BZZ458763 BZZ524287:BZZ524299 BZZ589823:BZZ589835 BZZ655359:BZZ655371 BZZ720895:BZZ720907 BZZ786431:BZZ786443 BZZ851967:BZZ851979 BZZ917503:BZZ917515 BZZ983039:BZZ983051 CJV65535:CJV65547 CJV131071:CJV131083 CJV196607:CJV196619 CJV262143:CJV262155 CJV327679:CJV327691 CJV393215:CJV393227 CJV458751:CJV458763 CJV524287:CJV524299 CJV589823:CJV589835 CJV655359:CJV655371 CJV720895:CJV720907 CJV786431:CJV786443 CJV851967:CJV851979 CJV917503:CJV917515 CJV983039:CJV983051 CTR65535:CTR65547 CTR131071:CTR131083 CTR196607:CTR196619 CTR262143:CTR262155 CTR327679:CTR327691 CTR393215:CTR393227 CTR458751:CTR458763 CTR524287:CTR524299 CTR589823:CTR589835 CTR655359:CTR655371 CTR720895:CTR720907 CTR786431:CTR786443 CTR851967:CTR851979 CTR917503:CTR917515 CTR983039:CTR983051 DDN65535:DDN65547 DDN131071:DDN131083 DDN196607:DDN196619 DDN262143:DDN262155 DDN327679:DDN327691 DDN393215:DDN393227 DDN458751:DDN458763 DDN524287:DDN524299 DDN589823:DDN589835 DDN655359:DDN655371 DDN720895:DDN720907 DDN786431:DDN786443 DDN851967:DDN851979 DDN917503:DDN917515 DDN983039:DDN983051 DNJ65535:DNJ65547 DNJ131071:DNJ131083 DNJ196607:DNJ196619 DNJ262143:DNJ262155 DNJ327679:DNJ327691 DNJ393215:DNJ393227 DNJ458751:DNJ458763 DNJ524287:DNJ524299 DNJ589823:DNJ589835 DNJ655359:DNJ655371 DNJ720895:DNJ720907 DNJ786431:DNJ786443 DNJ851967:DNJ851979 DNJ917503:DNJ917515 DNJ983039:DNJ983051 DXF65535:DXF65547 DXF131071:DXF131083 DXF196607:DXF196619 DXF262143:DXF262155 DXF327679:DXF327691 DXF393215:DXF393227 DXF458751:DXF458763 DXF524287:DXF524299 DXF589823:DXF589835 DXF655359:DXF655371 DXF720895:DXF720907 DXF786431:DXF786443 DXF851967:DXF851979 DXF917503:DXF917515 DXF983039:DXF983051 EHB65535:EHB65547 EHB131071:EHB131083 EHB196607:EHB196619 EHB262143:EHB262155 EHB327679:EHB327691 EHB393215:EHB393227 EHB458751:EHB458763 EHB524287:EHB524299 EHB589823:EHB589835 EHB655359:EHB655371 EHB720895:EHB720907 EHB786431:EHB786443 EHB851967:EHB851979 EHB917503:EHB917515 EHB983039:EHB983051 EQX65535:EQX65547 EQX131071:EQX131083 EQX196607:EQX196619 EQX262143:EQX262155 EQX327679:EQX327691 EQX393215:EQX393227 EQX458751:EQX458763 EQX524287:EQX524299 EQX589823:EQX589835 EQX655359:EQX655371 EQX720895:EQX720907 EQX786431:EQX786443 EQX851967:EQX851979 EQX917503:EQX917515 EQX983039:EQX983051 FAT65535:FAT65547 FAT131071:FAT131083 FAT196607:FAT196619 FAT262143:FAT262155 FAT327679:FAT327691 FAT393215:FAT393227 FAT458751:FAT458763 FAT524287:FAT524299 FAT589823:FAT589835 FAT655359:FAT655371 FAT720895:FAT720907 FAT786431:FAT786443 FAT851967:FAT851979 FAT917503:FAT917515 FAT983039:FAT983051 FKP65535:FKP65547 FKP131071:FKP131083 FKP196607:FKP196619 FKP262143:FKP262155 FKP327679:FKP327691 FKP393215:FKP393227 FKP458751:FKP458763 FKP524287:FKP524299 FKP589823:FKP589835 FKP655359:FKP655371 FKP720895:FKP720907 FKP786431:FKP786443 FKP851967:FKP851979 FKP917503:FKP917515 FKP983039:FKP983051 FUL65535:FUL65547 FUL131071:FUL131083 FUL196607:FUL196619 FUL262143:FUL262155 FUL327679:FUL327691 FUL393215:FUL393227 FUL458751:FUL458763 FUL524287:FUL524299 FUL589823:FUL589835 FUL655359:FUL655371 FUL720895:FUL720907 FUL786431:FUL786443 FUL851967:FUL851979 FUL917503:FUL917515 FUL983039:FUL983051 GEH65535:GEH65547 GEH131071:GEH131083 GEH196607:GEH196619 GEH262143:GEH262155 GEH327679:GEH327691 GEH393215:GEH393227 GEH458751:GEH458763 GEH524287:GEH524299 GEH589823:GEH589835 GEH655359:GEH655371 GEH720895:GEH720907 GEH786431:GEH786443 GEH851967:GEH851979 GEH917503:GEH917515 GEH983039:GEH983051 GOD65535:GOD65547 GOD131071:GOD131083 GOD196607:GOD196619 GOD262143:GOD262155 GOD327679:GOD327691 GOD393215:GOD393227 GOD458751:GOD458763 GOD524287:GOD524299 GOD589823:GOD589835 GOD655359:GOD655371 GOD720895:GOD720907 GOD786431:GOD786443 GOD851967:GOD851979 GOD917503:GOD917515 GOD983039:GOD983051 GXZ65535:GXZ65547 GXZ131071:GXZ131083 GXZ196607:GXZ196619 GXZ262143:GXZ262155 GXZ327679:GXZ327691 GXZ393215:GXZ393227 GXZ458751:GXZ458763 GXZ524287:GXZ524299 GXZ589823:GXZ589835 GXZ655359:GXZ655371 GXZ720895:GXZ720907 GXZ786431:GXZ786443 GXZ851967:GXZ851979 GXZ917503:GXZ917515 GXZ983039:GXZ983051 HHV65535:HHV65547 HHV131071:HHV131083 HHV196607:HHV196619 HHV262143:HHV262155 HHV327679:HHV327691 HHV393215:HHV393227 HHV458751:HHV458763 HHV524287:HHV524299 HHV589823:HHV589835 HHV655359:HHV655371 HHV720895:HHV720907 HHV786431:HHV786443 HHV851967:HHV851979 HHV917503:HHV917515 HHV983039:HHV983051 HRR65535:HRR65547 HRR131071:HRR131083 HRR196607:HRR196619 HRR262143:HRR262155 HRR327679:HRR327691 HRR393215:HRR393227 HRR458751:HRR458763 HRR524287:HRR524299 HRR589823:HRR589835 HRR655359:HRR655371 HRR720895:HRR720907 HRR786431:HRR786443 HRR851967:HRR851979 HRR917503:HRR917515 HRR983039:HRR983051 IBN65535:IBN65547 IBN131071:IBN131083 IBN196607:IBN196619 IBN262143:IBN262155 IBN327679:IBN327691 IBN393215:IBN393227 IBN458751:IBN458763 IBN524287:IBN524299 IBN589823:IBN589835 IBN655359:IBN655371 IBN720895:IBN720907 IBN786431:IBN786443 IBN851967:IBN851979 IBN917503:IBN917515 IBN983039:IBN983051 ILJ65535:ILJ65547 ILJ131071:ILJ131083 ILJ196607:ILJ196619 ILJ262143:ILJ262155 ILJ327679:ILJ327691 ILJ393215:ILJ393227 ILJ458751:ILJ458763 ILJ524287:ILJ524299 ILJ589823:ILJ589835 ILJ655359:ILJ655371 ILJ720895:ILJ720907 ILJ786431:ILJ786443 ILJ851967:ILJ851979 ILJ917503:ILJ917515 ILJ983039:ILJ983051 IVF65535:IVF65547 IVF131071:IVF131083 IVF196607:IVF196619 IVF262143:IVF262155 IVF327679:IVF327691 IVF393215:IVF393227 IVF458751:IVF458763 IVF524287:IVF524299 IVF589823:IVF589835 IVF655359:IVF655371 IVF720895:IVF720907 IVF786431:IVF786443 IVF851967:IVF851979 IVF917503:IVF917515 IVF983039:IVF983051 JFB65535:JFB65547 JFB131071:JFB131083 JFB196607:JFB196619 JFB262143:JFB262155 JFB327679:JFB327691 JFB393215:JFB393227 JFB458751:JFB458763 JFB524287:JFB524299 JFB589823:JFB589835 JFB655359:JFB655371 JFB720895:JFB720907 JFB786431:JFB786443 JFB851967:JFB851979 JFB917503:JFB917515 JFB983039:JFB983051 JOX65535:JOX65547 JOX131071:JOX131083 JOX196607:JOX196619 JOX262143:JOX262155 JOX327679:JOX327691 JOX393215:JOX393227 JOX458751:JOX458763 JOX524287:JOX524299 JOX589823:JOX589835 JOX655359:JOX655371 JOX720895:JOX720907 JOX786431:JOX786443 JOX851967:JOX851979 JOX917503:JOX917515 JOX983039:JOX983051 JYT65535:JYT65547 JYT131071:JYT131083 JYT196607:JYT196619 JYT262143:JYT262155 JYT327679:JYT327691 JYT393215:JYT393227 JYT458751:JYT458763 JYT524287:JYT524299 JYT589823:JYT589835 JYT655359:JYT655371 JYT720895:JYT720907 JYT786431:JYT786443 JYT851967:JYT851979 JYT917503:JYT917515 JYT983039:JYT983051 KIP65535:KIP65547 KIP131071:KIP131083 KIP196607:KIP196619 KIP262143:KIP262155 KIP327679:KIP327691 KIP393215:KIP393227 KIP458751:KIP458763 KIP524287:KIP524299 KIP589823:KIP589835 KIP655359:KIP655371 KIP720895:KIP720907 KIP786431:KIP786443 KIP851967:KIP851979 KIP917503:KIP917515 KIP983039:KIP983051 KSL65535:KSL65547 KSL131071:KSL131083 KSL196607:KSL196619 KSL262143:KSL262155 KSL327679:KSL327691 KSL393215:KSL393227 KSL458751:KSL458763 KSL524287:KSL524299 KSL589823:KSL589835 KSL655359:KSL655371 KSL720895:KSL720907 KSL786431:KSL786443 KSL851967:KSL851979 KSL917503:KSL917515 KSL983039:KSL983051 LCH65535:LCH65547 LCH131071:LCH131083 LCH196607:LCH196619 LCH262143:LCH262155 LCH327679:LCH327691 LCH393215:LCH393227 LCH458751:LCH458763 LCH524287:LCH524299 LCH589823:LCH589835 LCH655359:LCH655371 LCH720895:LCH720907 LCH786431:LCH786443 LCH851967:LCH851979 LCH917503:LCH917515 LCH983039:LCH983051 LMD65535:LMD65547 LMD131071:LMD131083 LMD196607:LMD196619 LMD262143:LMD262155 LMD327679:LMD327691 LMD393215:LMD393227 LMD458751:LMD458763 LMD524287:LMD524299 LMD589823:LMD589835 LMD655359:LMD655371 LMD720895:LMD720907 LMD786431:LMD786443 LMD851967:LMD851979 LMD917503:LMD917515 LMD983039:LMD983051 LVZ65535:LVZ65547 LVZ131071:LVZ131083 LVZ196607:LVZ196619 LVZ262143:LVZ262155 LVZ327679:LVZ327691 LVZ393215:LVZ393227 LVZ458751:LVZ458763 LVZ524287:LVZ524299 LVZ589823:LVZ589835 LVZ655359:LVZ655371 LVZ720895:LVZ720907 LVZ786431:LVZ786443 LVZ851967:LVZ851979 LVZ917503:LVZ917515 LVZ983039:LVZ983051 MFV65535:MFV65547 MFV131071:MFV131083 MFV196607:MFV196619 MFV262143:MFV262155 MFV327679:MFV327691 MFV393215:MFV393227 MFV458751:MFV458763 MFV524287:MFV524299 MFV589823:MFV589835 MFV655359:MFV655371 MFV720895:MFV720907 MFV786431:MFV786443 MFV851967:MFV851979 MFV917503:MFV917515 MFV983039:MFV983051 MPR65535:MPR65547 MPR131071:MPR131083 MPR196607:MPR196619 MPR262143:MPR262155 MPR327679:MPR327691 MPR393215:MPR393227 MPR458751:MPR458763 MPR524287:MPR524299 MPR589823:MPR589835 MPR655359:MPR655371 MPR720895:MPR720907 MPR786431:MPR786443 MPR851967:MPR851979 MPR917503:MPR917515 MPR983039:MPR983051 MZN65535:MZN65547 MZN131071:MZN131083 MZN196607:MZN196619 MZN262143:MZN262155 MZN327679:MZN327691 MZN393215:MZN393227 MZN458751:MZN458763 MZN524287:MZN524299 MZN589823:MZN589835 MZN655359:MZN655371 MZN720895:MZN720907 MZN786431:MZN786443 MZN851967:MZN851979 MZN917503:MZN917515 MZN983039:MZN983051 NJJ65535:NJJ65547 NJJ131071:NJJ131083 NJJ196607:NJJ196619 NJJ262143:NJJ262155 NJJ327679:NJJ327691 NJJ393215:NJJ393227 NJJ458751:NJJ458763 NJJ524287:NJJ524299 NJJ589823:NJJ589835 NJJ655359:NJJ655371 NJJ720895:NJJ720907 NJJ786431:NJJ786443 NJJ851967:NJJ851979 NJJ917503:NJJ917515 NJJ983039:NJJ983051 NTF65535:NTF65547 NTF131071:NTF131083 NTF196607:NTF196619 NTF262143:NTF262155 NTF327679:NTF327691 NTF393215:NTF393227 NTF458751:NTF458763 NTF524287:NTF524299 NTF589823:NTF589835 NTF655359:NTF655371 NTF720895:NTF720907 NTF786431:NTF786443 NTF851967:NTF851979 NTF917503:NTF917515 NTF983039:NTF983051 ODB65535:ODB65547 ODB131071:ODB131083 ODB196607:ODB196619 ODB262143:ODB262155 ODB327679:ODB327691 ODB393215:ODB393227 ODB458751:ODB458763 ODB524287:ODB524299 ODB589823:ODB589835 ODB655359:ODB655371 ODB720895:ODB720907 ODB786431:ODB786443 ODB851967:ODB851979 ODB917503:ODB917515 ODB983039:ODB983051 OMX65535:OMX65547 OMX131071:OMX131083 OMX196607:OMX196619 OMX262143:OMX262155 OMX327679:OMX327691 OMX393215:OMX393227 OMX458751:OMX458763 OMX524287:OMX524299 OMX589823:OMX589835 OMX655359:OMX655371 OMX720895:OMX720907 OMX786431:OMX786443 OMX851967:OMX851979 OMX917503:OMX917515 OMX983039:OMX983051 OWT65535:OWT65547 OWT131071:OWT131083 OWT196607:OWT196619 OWT262143:OWT262155 OWT327679:OWT327691 OWT393215:OWT393227 OWT458751:OWT458763 OWT524287:OWT524299 OWT589823:OWT589835 OWT655359:OWT655371 OWT720895:OWT720907 OWT786431:OWT786443 OWT851967:OWT851979 OWT917503:OWT917515 OWT983039:OWT983051 PGP65535:PGP65547 PGP131071:PGP131083 PGP196607:PGP196619 PGP262143:PGP262155 PGP327679:PGP327691 PGP393215:PGP393227 PGP458751:PGP458763 PGP524287:PGP524299 PGP589823:PGP589835 PGP655359:PGP655371 PGP720895:PGP720907 PGP786431:PGP786443 PGP851967:PGP851979 PGP917503:PGP917515 PGP983039:PGP983051 PQL65535:PQL65547 PQL131071:PQL131083 PQL196607:PQL196619 PQL262143:PQL262155 PQL327679:PQL327691 PQL393215:PQL393227 PQL458751:PQL458763 PQL524287:PQL524299 PQL589823:PQL589835 PQL655359:PQL655371 PQL720895:PQL720907 PQL786431:PQL786443 PQL851967:PQL851979 PQL917503:PQL917515 PQL983039:PQL983051 QAH65535:QAH65547 QAH131071:QAH131083 QAH196607:QAH196619 QAH262143:QAH262155 QAH327679:QAH327691 QAH393215:QAH393227 QAH458751:QAH458763 QAH524287:QAH524299 QAH589823:QAH589835 QAH655359:QAH655371 QAH720895:QAH720907 QAH786431:QAH786443 QAH851967:QAH851979 QAH917503:QAH917515 QAH983039:QAH983051 QKD65535:QKD65547 QKD131071:QKD131083 QKD196607:QKD196619 QKD262143:QKD262155 QKD327679:QKD327691 QKD393215:QKD393227 QKD458751:QKD458763 QKD524287:QKD524299 QKD589823:QKD589835 QKD655359:QKD655371 QKD720895:QKD720907 QKD786431:QKD786443 QKD851967:QKD851979 QKD917503:QKD917515 QKD983039:QKD983051 QTZ65535:QTZ65547 QTZ131071:QTZ131083 QTZ196607:QTZ196619 QTZ262143:QTZ262155 QTZ327679:QTZ327691 QTZ393215:QTZ393227 QTZ458751:QTZ458763 QTZ524287:QTZ524299 QTZ589823:QTZ589835 QTZ655359:QTZ655371 QTZ720895:QTZ720907 QTZ786431:QTZ786443 QTZ851967:QTZ851979 QTZ917503:QTZ917515 QTZ983039:QTZ983051 RDV65535:RDV65547 RDV131071:RDV131083 RDV196607:RDV196619 RDV262143:RDV262155 RDV327679:RDV327691 RDV393215:RDV393227 RDV458751:RDV458763 RDV524287:RDV524299 RDV589823:RDV589835 RDV655359:RDV655371 RDV720895:RDV720907 RDV786431:RDV786443 RDV851967:RDV851979 RDV917503:RDV917515 RDV983039:RDV983051 RNR65535:RNR65547 RNR131071:RNR131083 RNR196607:RNR196619 RNR262143:RNR262155 RNR327679:RNR327691 RNR393215:RNR393227 RNR458751:RNR458763 RNR524287:RNR524299 RNR589823:RNR589835 RNR655359:RNR655371 RNR720895:RNR720907 RNR786431:RNR786443 RNR851967:RNR851979 RNR917503:RNR917515 RNR983039:RNR983051 RXN65535:RXN65547 RXN131071:RXN131083 RXN196607:RXN196619 RXN262143:RXN262155 RXN327679:RXN327691 RXN393215:RXN393227 RXN458751:RXN458763 RXN524287:RXN524299 RXN589823:RXN589835 RXN655359:RXN655371 RXN720895:RXN720907 RXN786431:RXN786443 RXN851967:RXN851979 RXN917503:RXN917515 RXN983039:RXN983051 SHJ65535:SHJ65547 SHJ131071:SHJ131083 SHJ196607:SHJ196619 SHJ262143:SHJ262155 SHJ327679:SHJ327691 SHJ393215:SHJ393227 SHJ458751:SHJ458763 SHJ524287:SHJ524299 SHJ589823:SHJ589835 SHJ655359:SHJ655371 SHJ720895:SHJ720907 SHJ786431:SHJ786443 SHJ851967:SHJ851979 SHJ917503:SHJ917515 SHJ983039:SHJ983051 SRF65535:SRF65547 SRF131071:SRF131083 SRF196607:SRF196619 SRF262143:SRF262155 SRF327679:SRF327691 SRF393215:SRF393227 SRF458751:SRF458763 SRF524287:SRF524299 SRF589823:SRF589835 SRF655359:SRF655371 SRF720895:SRF720907 SRF786431:SRF786443 SRF851967:SRF851979 SRF917503:SRF917515 SRF983039:SRF983051 TBB65535:TBB65547 TBB131071:TBB131083 TBB196607:TBB196619 TBB262143:TBB262155 TBB327679:TBB327691 TBB393215:TBB393227 TBB458751:TBB458763 TBB524287:TBB524299 TBB589823:TBB589835 TBB655359:TBB655371 TBB720895:TBB720907 TBB786431:TBB786443 TBB851967:TBB851979 TBB917503:TBB917515 TBB983039:TBB983051 TKX65535:TKX65547 TKX131071:TKX131083 TKX196607:TKX196619 TKX262143:TKX262155 TKX327679:TKX327691 TKX393215:TKX393227 TKX458751:TKX458763 TKX524287:TKX524299 TKX589823:TKX589835 TKX655359:TKX655371 TKX720895:TKX720907 TKX786431:TKX786443 TKX851967:TKX851979 TKX917503:TKX917515 TKX983039:TKX983051 TUT65535:TUT65547 TUT131071:TUT131083 TUT196607:TUT196619 TUT262143:TUT262155 TUT327679:TUT327691 TUT393215:TUT393227 TUT458751:TUT458763 TUT524287:TUT524299 TUT589823:TUT589835 TUT655359:TUT655371 TUT720895:TUT720907 TUT786431:TUT786443 TUT851967:TUT851979 TUT917503:TUT917515 TUT983039:TUT983051 UEP65535:UEP65547 UEP131071:UEP131083 UEP196607:UEP196619 UEP262143:UEP262155 UEP327679:UEP327691 UEP393215:UEP393227 UEP458751:UEP458763 UEP524287:UEP524299 UEP589823:UEP589835 UEP655359:UEP655371 UEP720895:UEP720907 UEP786431:UEP786443 UEP851967:UEP851979 UEP917503:UEP917515 UEP983039:UEP983051 UOL65535:UOL65547 UOL131071:UOL131083 UOL196607:UOL196619 UOL262143:UOL262155 UOL327679:UOL327691 UOL393215:UOL393227 UOL458751:UOL458763 UOL524287:UOL524299 UOL589823:UOL589835 UOL655359:UOL655371 UOL720895:UOL720907 UOL786431:UOL786443 UOL851967:UOL851979 UOL917503:UOL917515 UOL983039:UOL983051 UYH65535:UYH65547 UYH131071:UYH131083 UYH196607:UYH196619 UYH262143:UYH262155 UYH327679:UYH327691 UYH393215:UYH393227 UYH458751:UYH458763 UYH524287:UYH524299 UYH589823:UYH589835 UYH655359:UYH655371 UYH720895:UYH720907 UYH786431:UYH786443 UYH851967:UYH851979 UYH917503:UYH917515 UYH983039:UYH983051 VID65535:VID65547 VID131071:VID131083 VID196607:VID196619 VID262143:VID262155 VID327679:VID327691 VID393215:VID393227 VID458751:VID458763 VID524287:VID524299 VID589823:VID589835 VID655359:VID655371 VID720895:VID720907 VID786431:VID786443 VID851967:VID851979 VID917503:VID917515 VID983039:VID983051 VRZ65535:VRZ65547 VRZ131071:VRZ131083 VRZ196607:VRZ196619 VRZ262143:VRZ262155 VRZ327679:VRZ327691 VRZ393215:VRZ393227 VRZ458751:VRZ458763 VRZ524287:VRZ524299 VRZ589823:VRZ589835 VRZ655359:VRZ655371 VRZ720895:VRZ720907 VRZ786431:VRZ786443 VRZ851967:VRZ851979 VRZ917503:VRZ917515 VRZ983039:VRZ983051 WBV65535:WBV65547 WBV131071:WBV131083 WBV196607:WBV196619 WBV262143:WBV262155 WBV327679:WBV327691 WBV393215:WBV393227 WBV458751:WBV458763 WBV524287:WBV524299 WBV589823:WBV589835 WBV655359:WBV655371 WBV720895:WBV720907 WBV786431:WBV786443 WBV851967:WBV851979 WBV917503:WBV917515 WBV983039:WBV983051 WLR65535:WLR65547 WLR131071:WLR131083 WLR196607:WLR196619 WLR262143:WLR262155 WLR327679:WLR327691 WLR393215:WLR393227 WLR458751:WLR458763 WLR524287:WLR524299 WLR589823:WLR589835 WLR655359:WLR655371 WLR720895:WLR720907 WLR786431:WLR786443 WLR851967:WLR851979 WLR917503:WLR917515 WLR983039:WLR983051 WVN983039:WVN983051 WVN65535:WVN65547 WVN131071:WVN131083 WVN196607:WVN196619 WVN262143:WVN262155 WVN327679:WVN327691 WVN393215:WVN393227 WVN458751:WVN458763 WVN524287:WVN524299 WVN589823:WVN589835 WVN655359:WVN655371 WVN720895:WVN720907 WVN786431:WVN786443 WVN851967:WVN851979 WVN917503:WVN917515 WVN4:WVN11 F4:F11 JB4:JB11 SX4:SX11 ACT4:ACT11 AMP4:AMP11 AWL4:AWL11 BGH4:BGH11 BQD4:BQD11 BZZ4:BZZ11 CJV4:CJV11 CTR4:CTR11 DDN4:DDN11 DNJ4:DNJ11 DXF4:DXF11 EHB4:EHB11 EQX4:EQX11 FAT4:FAT11 FKP4:FKP11 FUL4:FUL11 GEH4:GEH11 GOD4:GOD11 GXZ4:GXZ11 HHV4:HHV11 HRR4:HRR11 IBN4:IBN11 ILJ4:ILJ11 IVF4:IVF11 JFB4:JFB11 JOX4:JOX11 JYT4:JYT11 KIP4:KIP11 KSL4:KSL11 LCH4:LCH11 LMD4:LMD11 LVZ4:LVZ11 MFV4:MFV11 MPR4:MPR11 MZN4:MZN11 NJJ4:NJJ11 NTF4:NTF11 ODB4:ODB11 OMX4:OMX11 OWT4:OWT11 PGP4:PGP11 PQL4:PQL11 QAH4:QAH11 QKD4:QKD11 QTZ4:QTZ11 RDV4:RDV11 RNR4:RNR11 RXN4:RXN11 SHJ4:SHJ11 SRF4:SRF11 TBB4:TBB11 TKX4:TKX11 TUT4:TUT11 UEP4:UEP11 UOL4:UOL11 UYH4:UYH11 VID4:VID11 VRZ4:VRZ11 WBV4:WBV11 WLR4:WLR11">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12 JB4:JB12 F4:F12 WVN4:WVN12">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576 I1:I3 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576 JE1:JE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 I1:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I11">
-      <formula1>"预发环境,生产环境,公测环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6262,23 +6345,23 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="7" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="31" customWidth="1"/>
-    <col min="5" max="5" width="35" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="7" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="33" customWidth="1"/>
+    <col min="5" max="5" width="35" style="33" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="34" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="35" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="33" customWidth="1"/>
+    <col min="12" max="12" width="9" style="35" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -7102,36 +7185,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -7175,162 +7258,162 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="26" customFormat="1" ht="115.5">
-      <c r="A4" s="40">
+      <c r="A4" s="42">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="41"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1" ht="82.5">
-      <c r="A5" s="40">
+      <c r="A5" s="42">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="41"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:13" s="26" customFormat="1" ht="66">
-      <c r="A6" s="40">
+      <c r="A6" s="42">
         <v>3</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="43" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="26" customFormat="1" ht="99">
-      <c r="A7" s="40">
+      <c r="A7" s="42">
         <v>4</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="41"/>
+      <c r="M7" s="43"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
@@ -7339,7 +7422,7 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
@@ -7354,7 +7437,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
@@ -7369,7 +7452,7 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -7384,7 +7467,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
@@ -7399,7 +7482,7 @@
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -7412,15 +7495,12 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 ACT4:ACT12 SX4:SX12 JB4:JB12 WVN4:WVN12 AMP4:AMP12 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 F4:F12">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 I1:I3 I13:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 I1:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
-      <formula1>"预发环境,生产环境,公测环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7429,26 +7509,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="7" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="31" customWidth="1"/>
-    <col min="5" max="5" width="35" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="7" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="33" customWidth="1"/>
+    <col min="5" max="5" width="35" style="33" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="34" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="35" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="33" customWidth="1"/>
+    <col min="12" max="12" width="9" style="35" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -8272,36 +8352,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -8344,124 +8424,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="115.5">
-      <c r="A4" s="40">
-        <v>1</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="66">
-      <c r="A5" s="40">
-        <v>3</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="99">
-      <c r="A6" s="40">
-        <v>4</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" s="41"/>
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
@@ -8470,7 +8476,7 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
@@ -8485,7 +8491,7 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
@@ -8500,7 +8506,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
@@ -8515,7 +8521,7 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -8530,7 +8536,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
@@ -8538,20 +8544,32 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1048576 I1:I3 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65535:F65547 F131071:F131083 F196607:F196619 F262143:F262155 F327679:F327691 F393215:F393227 F458751:F458763 F524287:F524299 F589823:F589835 F655359:F655371 F720895:F720907 F786431:F786443 F851967:F851979 F917503:F917515 F983039:F983051 JB65535:JB65547 JB131071:JB131083 JB196607:JB196619 JB262143:JB262155 JB327679:JB327691 JB393215:JB393227 JB458751:JB458763 JB524287:JB524299 JB589823:JB589835 JB655359:JB655371 JB720895:JB720907 JB786431:JB786443 JB851967:JB851979 JB917503:JB917515 JB983039:JB983051 SX65535:SX65547 SX131071:SX131083 SX196607:SX196619 SX262143:SX262155 SX327679:SX327691 SX393215:SX393227 SX458751:SX458763 SX524287:SX524299 SX589823:SX589835 SX655359:SX655371 SX720895:SX720907 SX786431:SX786443 SX851967:SX851979 SX917503:SX917515 SX983039:SX983051 ACT65535:ACT65547 ACT131071:ACT131083 ACT196607:ACT196619 ACT262143:ACT262155 ACT327679:ACT327691 ACT393215:ACT393227 ACT458751:ACT458763 ACT524287:ACT524299 ACT589823:ACT589835 ACT655359:ACT655371 ACT720895:ACT720907 ACT786431:ACT786443 ACT851967:ACT851979 ACT917503:ACT917515 ACT983039:ACT983051 AMP65535:AMP65547 AMP131071:AMP131083 AMP196607:AMP196619 AMP262143:AMP262155 AMP327679:AMP327691 AMP393215:AMP393227 AMP458751:AMP458763 AMP524287:AMP524299 AMP589823:AMP589835 AMP655359:AMP655371 AMP720895:AMP720907 AMP786431:AMP786443 AMP851967:AMP851979 AMP917503:AMP917515 AMP983039:AMP983051 AWL65535:AWL65547 AWL131071:AWL131083 AWL196607:AWL196619 AWL262143:AWL262155 AWL327679:AWL327691 AWL393215:AWL393227 AWL458751:AWL458763 AWL524287:AWL524299 AWL589823:AWL589835 AWL655359:AWL655371 AWL720895:AWL720907 AWL786431:AWL786443 AWL851967:AWL851979 AWL917503:AWL917515 AWL983039:AWL983051 BGH65535:BGH65547 BGH131071:BGH131083 BGH196607:BGH196619 BGH262143:BGH262155 BGH327679:BGH327691 BGH393215:BGH393227 BGH458751:BGH458763 BGH524287:BGH524299 BGH589823:BGH589835 BGH655359:BGH655371 BGH720895:BGH720907 BGH786431:BGH786443 BGH851967:BGH851979 BGH917503:BGH917515 BGH983039:BGH983051 BQD65535:BQD65547 BQD131071:BQD131083 BQD196607:BQD196619 BQD262143:BQD262155 BQD327679:BQD327691 BQD393215:BQD393227 BQD458751:BQD458763 BQD524287:BQD524299 BQD589823:BQD589835 BQD655359:BQD655371 BQD720895:BQD720907 BQD786431:BQD786443 BQD851967:BQD851979 BQD917503:BQD917515 BQD983039:BQD983051 BZZ65535:BZZ65547 BZZ131071:BZZ131083 BZZ196607:BZZ196619 BZZ262143:BZZ262155 BZZ327679:BZZ327691 BZZ393215:BZZ393227 BZZ458751:BZZ458763 BZZ524287:BZZ524299 BZZ589823:BZZ589835 BZZ655359:BZZ655371 BZZ720895:BZZ720907 BZZ786431:BZZ786443 BZZ851967:BZZ851979 BZZ917503:BZZ917515 BZZ983039:BZZ983051 CJV65535:CJV65547 CJV131071:CJV131083 CJV196607:CJV196619 CJV262143:CJV262155 CJV327679:CJV327691 CJV393215:CJV393227 CJV458751:CJV458763 CJV524287:CJV524299 CJV589823:CJV589835 CJV655359:CJV655371 CJV720895:CJV720907 CJV786431:CJV786443 CJV851967:CJV851979 CJV917503:CJV917515 CJV983039:CJV983051 CTR65535:CTR65547 CTR131071:CTR131083 CTR196607:CTR196619 CTR262143:CTR262155 CTR327679:CTR327691 CTR393215:CTR393227 CTR458751:CTR458763 CTR524287:CTR524299 CTR589823:CTR589835 CTR655359:CTR655371 CTR720895:CTR720907 CTR786431:CTR786443 CTR851967:CTR851979 CTR917503:CTR917515 CTR983039:CTR983051 DDN65535:DDN65547 DDN131071:DDN131083 DDN196607:DDN196619 DDN262143:DDN262155 DDN327679:DDN327691 DDN393215:DDN393227 DDN458751:DDN458763 DDN524287:DDN524299 DDN589823:DDN589835 DDN655359:DDN655371 DDN720895:DDN720907 DDN786431:DDN786443 DDN851967:DDN851979 DDN917503:DDN917515 DDN983039:DDN983051 DNJ65535:DNJ65547 DNJ131071:DNJ131083 DNJ196607:DNJ196619 DNJ262143:DNJ262155 DNJ327679:DNJ327691 DNJ393215:DNJ393227 DNJ458751:DNJ458763 DNJ524287:DNJ524299 DNJ589823:DNJ589835 DNJ655359:DNJ655371 DNJ720895:DNJ720907 DNJ786431:DNJ786443 DNJ851967:DNJ851979 DNJ917503:DNJ917515 DNJ983039:DNJ983051 DXF65535:DXF65547 DXF131071:DXF131083 DXF196607:DXF196619 DXF262143:DXF262155 DXF327679:DXF327691 DXF393215:DXF393227 DXF458751:DXF458763 DXF524287:DXF524299 DXF589823:DXF589835 DXF655359:DXF655371 DXF720895:DXF720907 DXF786431:DXF786443 DXF851967:DXF851979 DXF917503:DXF917515 DXF983039:DXF983051 EHB65535:EHB65547 EHB131071:EHB131083 EHB196607:EHB196619 EHB262143:EHB262155 EHB327679:EHB327691 EHB393215:EHB393227 EHB458751:EHB458763 EHB524287:EHB524299 EHB589823:EHB589835 EHB655359:EHB655371 EHB720895:EHB720907 EHB786431:EHB786443 EHB851967:EHB851979 EHB917503:EHB917515 EHB983039:EHB983051 EQX65535:EQX65547 EQX131071:EQX131083 EQX196607:EQX196619 EQX262143:EQX262155 EQX327679:EQX327691 EQX393215:EQX393227 EQX458751:EQX458763 EQX524287:EQX524299 EQX589823:EQX589835 EQX655359:EQX655371 EQX720895:EQX720907 EQX786431:EQX786443 EQX851967:EQX851979 EQX917503:EQX917515 EQX983039:EQX983051 FAT65535:FAT65547 FAT131071:FAT131083 FAT196607:FAT196619 FAT262143:FAT262155 FAT327679:FAT327691 FAT393215:FAT393227 FAT458751:FAT458763 FAT524287:FAT524299 FAT589823:FAT589835 FAT655359:FAT655371 FAT720895:FAT720907 FAT786431:FAT786443 FAT851967:FAT851979 FAT917503:FAT917515 FAT983039:FAT983051 FKP65535:FKP65547 FKP131071:FKP131083 FKP196607:FKP196619 FKP262143:FKP262155 FKP327679:FKP327691 FKP393215:FKP393227 FKP458751:FKP458763 FKP524287:FKP524299 FKP589823:FKP589835 FKP655359:FKP655371 FKP720895:FKP720907 FKP786431:FKP786443 FKP851967:FKP851979 FKP917503:FKP917515 FKP983039:FKP983051 FUL65535:FUL65547 FUL131071:FUL131083 FUL196607:FUL196619 FUL262143:FUL262155 FUL327679:FUL327691 FUL393215:FUL393227 FUL458751:FUL458763 FUL524287:FUL524299 FUL589823:FUL589835 FUL655359:FUL655371 FUL720895:FUL720907 FUL786431:FUL786443 FUL851967:FUL851979 FUL917503:FUL917515 FUL983039:FUL983051 GEH65535:GEH65547 GEH131071:GEH131083 GEH196607:GEH196619 GEH262143:GEH262155 GEH327679:GEH327691 GEH393215:GEH393227 GEH458751:GEH458763 GEH524287:GEH524299 GEH589823:GEH589835 GEH655359:GEH655371 GEH720895:GEH720907 GEH786431:GEH786443 GEH851967:GEH851979 GEH917503:GEH917515 GEH983039:GEH983051 GOD65535:GOD65547 GOD131071:GOD131083 GOD196607:GOD196619 GOD262143:GOD262155 GOD327679:GOD327691 GOD393215:GOD393227 GOD458751:GOD458763 GOD524287:GOD524299 GOD589823:GOD589835 GOD655359:GOD655371 GOD720895:GOD720907 GOD786431:GOD786443 GOD851967:GOD851979 GOD917503:GOD917515 GOD983039:GOD983051 GXZ65535:GXZ65547 GXZ131071:GXZ131083 GXZ196607:GXZ196619 GXZ262143:GXZ262155 GXZ327679:GXZ327691 GXZ393215:GXZ393227 GXZ458751:GXZ458763 GXZ524287:GXZ524299 GXZ589823:GXZ589835 GXZ655359:GXZ655371 GXZ720895:GXZ720907 GXZ786431:GXZ786443 GXZ851967:GXZ851979 GXZ917503:GXZ917515 GXZ983039:GXZ983051 HHV65535:HHV65547 HHV131071:HHV131083 HHV196607:HHV196619 HHV262143:HHV262155 HHV327679:HHV327691 HHV393215:HHV393227 HHV458751:HHV458763 HHV524287:HHV524299 HHV589823:HHV589835 HHV655359:HHV655371 HHV720895:HHV720907 HHV786431:HHV786443 HHV851967:HHV851979 HHV917503:HHV917515 HHV983039:HHV983051 HRR65535:HRR65547 HRR131071:HRR131083 HRR196607:HRR196619 HRR262143:HRR262155 HRR327679:HRR327691 HRR393215:HRR393227 HRR458751:HRR458763 HRR524287:HRR524299 HRR589823:HRR589835 HRR655359:HRR655371 HRR720895:HRR720907 HRR786431:HRR786443 HRR851967:HRR851979 HRR917503:HRR917515 HRR983039:HRR983051 IBN65535:IBN65547 IBN131071:IBN131083 IBN196607:IBN196619 IBN262143:IBN262155 IBN327679:IBN327691 IBN393215:IBN393227 IBN458751:IBN458763 IBN524287:IBN524299 IBN589823:IBN589835 IBN655359:IBN655371 IBN720895:IBN720907 IBN786431:IBN786443 IBN851967:IBN851979 IBN917503:IBN917515 IBN983039:IBN983051 ILJ65535:ILJ65547 ILJ131071:ILJ131083 ILJ196607:ILJ196619 ILJ262143:ILJ262155 ILJ327679:ILJ327691 ILJ393215:ILJ393227 ILJ458751:ILJ458763 ILJ524287:ILJ524299 ILJ589823:ILJ589835 ILJ655359:ILJ655371 ILJ720895:ILJ720907 ILJ786431:ILJ786443 ILJ851967:ILJ851979 ILJ917503:ILJ917515 ILJ983039:ILJ983051 IVF65535:IVF65547 IVF131071:IVF131083 IVF196607:IVF196619 IVF262143:IVF262155 IVF327679:IVF327691 IVF393215:IVF393227 IVF458751:IVF458763 IVF524287:IVF524299 IVF589823:IVF589835 IVF655359:IVF655371 IVF720895:IVF720907 IVF786431:IVF786443 IVF851967:IVF851979 IVF917503:IVF917515 IVF983039:IVF983051 JFB65535:JFB65547 JFB131071:JFB131083 JFB196607:JFB196619 JFB262143:JFB262155 JFB327679:JFB327691 JFB393215:JFB393227 JFB458751:JFB458763 JFB524287:JFB524299 JFB589823:JFB589835 JFB655359:JFB655371 JFB720895:JFB720907 JFB786431:JFB786443 JFB851967:JFB851979 JFB917503:JFB917515 JFB983039:JFB983051 JOX65535:JOX65547 JOX131071:JOX131083 JOX196607:JOX196619 JOX262143:JOX262155 JOX327679:JOX327691 JOX393215:JOX393227 JOX458751:JOX458763 JOX524287:JOX524299 JOX589823:JOX589835 JOX655359:JOX655371 JOX720895:JOX720907 JOX786431:JOX786443 JOX851967:JOX851979 JOX917503:JOX917515 JOX983039:JOX983051 JYT65535:JYT65547 JYT131071:JYT131083 JYT196607:JYT196619 JYT262143:JYT262155 JYT327679:JYT327691 JYT393215:JYT393227 JYT458751:JYT458763 JYT524287:JYT524299 JYT589823:JYT589835 JYT655359:JYT655371 JYT720895:JYT720907 JYT786431:JYT786443 JYT851967:JYT851979 JYT917503:JYT917515 JYT983039:JYT983051 KIP65535:KIP65547 KIP131071:KIP131083 KIP196607:KIP196619 KIP262143:KIP262155 KIP327679:KIP327691 KIP393215:KIP393227 KIP458751:KIP458763 KIP524287:KIP524299 KIP589823:KIP589835 KIP655359:KIP655371 KIP720895:KIP720907 KIP786431:KIP786443 KIP851967:KIP851979 KIP917503:KIP917515 KIP983039:KIP983051 KSL65535:KSL65547 KSL131071:KSL131083 KSL196607:KSL196619 KSL262143:KSL262155 KSL327679:KSL327691 KSL393215:KSL393227 KSL458751:KSL458763 KSL524287:KSL524299 KSL589823:KSL589835 KSL655359:KSL655371 KSL720895:KSL720907 KSL786431:KSL786443 KSL851967:KSL851979 KSL917503:KSL917515 KSL983039:KSL983051 LCH65535:LCH65547 LCH131071:LCH131083 LCH196607:LCH196619 LCH262143:LCH262155 LCH327679:LCH327691 LCH393215:LCH393227 LCH458751:LCH458763 LCH524287:LCH524299 LCH589823:LCH589835 LCH655359:LCH655371 LCH720895:LCH720907 LCH786431:LCH786443 LCH851967:LCH851979 LCH917503:LCH917515 LCH983039:LCH983051 LMD65535:LMD65547 LMD131071:LMD131083 LMD196607:LMD196619 LMD262143:LMD262155 LMD327679:LMD327691 LMD393215:LMD393227 LMD458751:LMD458763 LMD524287:LMD524299 LMD589823:LMD589835 LMD655359:LMD655371 LMD720895:LMD720907 LMD786431:LMD786443 LMD851967:LMD851979 LMD917503:LMD917515 LMD983039:LMD983051 LVZ65535:LVZ65547 LVZ131071:LVZ131083 LVZ196607:LVZ196619 LVZ262143:LVZ262155 LVZ327679:LVZ327691 LVZ393215:LVZ393227 LVZ458751:LVZ458763 LVZ524287:LVZ524299 LVZ589823:LVZ589835 LVZ655359:LVZ655371 LVZ720895:LVZ720907 LVZ786431:LVZ786443 LVZ851967:LVZ851979 LVZ917503:LVZ917515 LVZ983039:LVZ983051 MFV65535:MFV65547 MFV131071:MFV131083 MFV196607:MFV196619 MFV262143:MFV262155 MFV327679:MFV327691 MFV393215:MFV393227 MFV458751:MFV458763 MFV524287:MFV524299 MFV589823:MFV589835 MFV655359:MFV655371 MFV720895:MFV720907 MFV786431:MFV786443 MFV851967:MFV851979 MFV917503:MFV917515 MFV983039:MFV983051 MPR65535:MPR65547 MPR131071:MPR131083 MPR196607:MPR196619 MPR262143:MPR262155 MPR327679:MPR327691 MPR393215:MPR393227 MPR458751:MPR458763 MPR524287:MPR524299 MPR589823:MPR589835 MPR655359:MPR655371 MPR720895:MPR720907 MPR786431:MPR786443 MPR851967:MPR851979 MPR917503:MPR917515 MPR983039:MPR983051 MZN65535:MZN65547 MZN131071:MZN131083 MZN196607:MZN196619 MZN262143:MZN262155 MZN327679:MZN327691 MZN393215:MZN393227 MZN458751:MZN458763 MZN524287:MZN524299 MZN589823:MZN589835 MZN655359:MZN655371 MZN720895:MZN720907 MZN786431:MZN786443 MZN851967:MZN851979 MZN917503:MZN917515 MZN983039:MZN983051 NJJ65535:NJJ65547 NJJ131071:NJJ131083 NJJ196607:NJJ196619 NJJ262143:NJJ262155 NJJ327679:NJJ327691 NJJ393215:NJJ393227 NJJ458751:NJJ458763 NJJ524287:NJJ524299 NJJ589823:NJJ589835 NJJ655359:NJJ655371 NJJ720895:NJJ720907 NJJ786431:NJJ786443 NJJ851967:NJJ851979 NJJ917503:NJJ917515 NJJ983039:NJJ983051 NTF65535:NTF65547 NTF131071:NTF131083 NTF196607:NTF196619 NTF262143:NTF262155 NTF327679:NTF327691 NTF393215:NTF393227 NTF458751:NTF458763 NTF524287:NTF524299 NTF589823:NTF589835 NTF655359:NTF655371 NTF720895:NTF720907 NTF786431:NTF786443 NTF851967:NTF851979 NTF917503:NTF917515 NTF983039:NTF983051 ODB65535:ODB65547 ODB131071:ODB131083 ODB196607:ODB196619 ODB262143:ODB262155 ODB327679:ODB327691 ODB393215:ODB393227 ODB458751:ODB458763 ODB524287:ODB524299 ODB589823:ODB589835 ODB655359:ODB655371 ODB720895:ODB720907 ODB786431:ODB786443 ODB851967:ODB851979 ODB917503:ODB917515 ODB983039:ODB983051 OMX65535:OMX65547 OMX131071:OMX131083 OMX196607:OMX196619 OMX262143:OMX262155 OMX327679:OMX327691 OMX393215:OMX393227 OMX458751:OMX458763 OMX524287:OMX524299 OMX589823:OMX589835 OMX655359:OMX655371 OMX720895:OMX720907 OMX786431:OMX786443 OMX851967:OMX851979 OMX917503:OMX917515 OMX983039:OMX983051 OWT65535:OWT65547 OWT131071:OWT131083 OWT196607:OWT196619 OWT262143:OWT262155 OWT327679:OWT327691 OWT393215:OWT393227 OWT458751:OWT458763 OWT524287:OWT524299 OWT589823:OWT589835 OWT655359:OWT655371 OWT720895:OWT720907 OWT786431:OWT786443 OWT851967:OWT851979 OWT917503:OWT917515 OWT983039:OWT983051 PGP65535:PGP65547 PGP131071:PGP131083 PGP196607:PGP196619 PGP262143:PGP262155 PGP327679:PGP327691 PGP393215:PGP393227 PGP458751:PGP458763 PGP524287:PGP524299 PGP589823:PGP589835 PGP655359:PGP655371 PGP720895:PGP720907 PGP786431:PGP786443 PGP851967:PGP851979 PGP917503:PGP917515 PGP983039:PGP983051 PQL65535:PQL65547 PQL131071:PQL131083 PQL196607:PQL196619 PQL262143:PQL262155 PQL327679:PQL327691 PQL393215:PQL393227 PQL458751:PQL458763 PQL524287:PQL524299 PQL589823:PQL589835 PQL655359:PQL655371 PQL720895:PQL720907 PQL786431:PQL786443 PQL851967:PQL851979 PQL917503:PQL917515 PQL983039:PQL983051 QAH65535:QAH65547 QAH131071:QAH131083 QAH196607:QAH196619 QAH262143:QAH262155 QAH327679:QAH327691 QAH393215:QAH393227 QAH458751:QAH458763 QAH524287:QAH524299 QAH589823:QAH589835 QAH655359:QAH655371 QAH720895:QAH720907 QAH786431:QAH786443 QAH851967:QAH851979 QAH917503:QAH917515 QAH983039:QAH983051 QKD65535:QKD65547 QKD131071:QKD131083 QKD196607:QKD196619 QKD262143:QKD262155 QKD327679:QKD327691 QKD393215:QKD393227 QKD458751:QKD458763 QKD524287:QKD524299 QKD589823:QKD589835 QKD655359:QKD655371 QKD720895:QKD720907 QKD786431:QKD786443 QKD851967:QKD851979 QKD917503:QKD917515 QKD983039:QKD983051 QTZ65535:QTZ65547 QTZ131071:QTZ131083 QTZ196607:QTZ196619 QTZ262143:QTZ262155 QTZ327679:QTZ327691 QTZ393215:QTZ393227 QTZ458751:QTZ458763 QTZ524287:QTZ524299 QTZ589823:QTZ589835 QTZ655359:QTZ655371 QTZ720895:QTZ720907 QTZ786431:QTZ786443 QTZ851967:QTZ851979 QTZ917503:QTZ917515 QTZ983039:QTZ983051 RDV65535:RDV65547 RDV131071:RDV131083 RDV196607:RDV196619 RDV262143:RDV262155 RDV327679:RDV327691 RDV393215:RDV393227 RDV458751:RDV458763 RDV524287:RDV524299 RDV589823:RDV589835 RDV655359:RDV655371 RDV720895:RDV720907 RDV786431:RDV786443 RDV851967:RDV851979 RDV917503:RDV917515 RDV983039:RDV983051 RNR65535:RNR65547 RNR131071:RNR131083 RNR196607:RNR196619 RNR262143:RNR262155 RNR327679:RNR327691 RNR393215:RNR393227 RNR458751:RNR458763 RNR524287:RNR524299 RNR589823:RNR589835 RNR655359:RNR655371 RNR720895:RNR720907 RNR786431:RNR786443 RNR851967:RNR851979 RNR917503:RNR917515 RNR983039:RNR983051 RXN65535:RXN65547 RXN131071:RXN131083 RXN196607:RXN196619 RXN262143:RXN262155 RXN327679:RXN327691 RXN393215:RXN393227 RXN458751:RXN458763 RXN524287:RXN524299 RXN589823:RXN589835 RXN655359:RXN655371 RXN720895:RXN720907 RXN786431:RXN786443 RXN851967:RXN851979 RXN917503:RXN917515 RXN983039:RXN983051 SHJ65535:SHJ65547 SHJ131071:SHJ131083 SHJ196607:SHJ196619 SHJ262143:SHJ262155 SHJ327679:SHJ327691 SHJ393215:SHJ393227 SHJ458751:SHJ458763 SHJ524287:SHJ524299 SHJ589823:SHJ589835 SHJ655359:SHJ655371 SHJ720895:SHJ720907 SHJ786431:SHJ786443 SHJ851967:SHJ851979 SHJ917503:SHJ917515 SHJ983039:SHJ983051 SRF65535:SRF65547 SRF131071:SRF131083 SRF196607:SRF196619 SRF262143:SRF262155 SRF327679:SRF327691 SRF393215:SRF393227 SRF458751:SRF458763 SRF524287:SRF524299 SRF589823:SRF589835 SRF655359:SRF655371 SRF720895:SRF720907 SRF786431:SRF786443 SRF851967:SRF851979 SRF917503:SRF917515 SRF983039:SRF983051 TBB65535:TBB65547 TBB131071:TBB131083 TBB196607:TBB196619 TBB262143:TBB262155 TBB327679:TBB327691 TBB393215:TBB393227 TBB458751:TBB458763 TBB524287:TBB524299 TBB589823:TBB589835 TBB655359:TBB655371 TBB720895:TBB720907 TBB786431:TBB786443 TBB851967:TBB851979 TBB917503:TBB917515 TBB983039:TBB983051 TKX65535:TKX65547 TKX131071:TKX131083 TKX196607:TKX196619 TKX262143:TKX262155 TKX327679:TKX327691 TKX393215:TKX393227 TKX458751:TKX458763 TKX524287:TKX524299 TKX589823:TKX589835 TKX655359:TKX655371 TKX720895:TKX720907 TKX786431:TKX786443 TKX851967:TKX851979 TKX917503:TKX917515 TKX983039:TKX983051 TUT65535:TUT65547 TUT131071:TUT131083 TUT196607:TUT196619 TUT262143:TUT262155 TUT327679:TUT327691 TUT393215:TUT393227 TUT458751:TUT458763 TUT524287:TUT524299 TUT589823:TUT589835 TUT655359:TUT655371 TUT720895:TUT720907 TUT786431:TUT786443 TUT851967:TUT851979 TUT917503:TUT917515 TUT983039:TUT983051 UEP65535:UEP65547 UEP131071:UEP131083 UEP196607:UEP196619 UEP262143:UEP262155 UEP327679:UEP327691 UEP393215:UEP393227 UEP458751:UEP458763 UEP524287:UEP524299 UEP589823:UEP589835 UEP655359:UEP655371 UEP720895:UEP720907 UEP786431:UEP786443 UEP851967:UEP851979 UEP917503:UEP917515 UEP983039:UEP983051 UOL65535:UOL65547 UOL131071:UOL131083 UOL196607:UOL196619 UOL262143:UOL262155 UOL327679:UOL327691 UOL393215:UOL393227 UOL458751:UOL458763 UOL524287:UOL524299 UOL589823:UOL589835 UOL655359:UOL655371 UOL720895:UOL720907 UOL786431:UOL786443 UOL851967:UOL851979 UOL917503:UOL917515 UOL983039:UOL983051 UYH65535:UYH65547 UYH131071:UYH131083 UYH196607:UYH196619 UYH262143:UYH262155 UYH327679:UYH327691 UYH393215:UYH393227 UYH458751:UYH458763 UYH524287:UYH524299 UYH589823:UYH589835 UYH655359:UYH655371 UYH720895:UYH720907 UYH786431:UYH786443 UYH851967:UYH851979 UYH917503:UYH917515 UYH983039:UYH983051 VID65535:VID65547 VID131071:VID131083 VID196607:VID196619 VID262143:VID262155 VID327679:VID327691 VID393215:VID393227 VID458751:VID458763 VID524287:VID524299 VID589823:VID589835 VID655359:VID655371 VID720895:VID720907 VID786431:VID786443 VID851967:VID851979 VID917503:VID917515 VID983039:VID983051 VRZ65535:VRZ65547 VRZ131071:VRZ131083 VRZ196607:VRZ196619 VRZ262143:VRZ262155 VRZ327679:VRZ327691 VRZ393215:VRZ393227 VRZ458751:VRZ458763 VRZ524287:VRZ524299 VRZ589823:VRZ589835 VRZ655359:VRZ655371 VRZ720895:VRZ720907 VRZ786431:VRZ786443 VRZ851967:VRZ851979 VRZ917503:VRZ917515 VRZ983039:VRZ983051 WBV65535:WBV65547 WBV131071:WBV131083 WBV196607:WBV196619 WBV262143:WBV262155 WBV327679:WBV327691 WBV393215:WBV393227 WBV458751:WBV458763 WBV524287:WBV524299 WBV589823:WBV589835 WBV655359:WBV655371 WBV720895:WBV720907 WBV786431:WBV786443 WBV851967:WBV851979 WBV917503:WBV917515 WBV983039:WBV983051 WLR65535:WLR65547 WLR131071:WLR131083 WLR196607:WLR196619 WLR262143:WLR262155 WLR327679:WLR327691 WLR393215:WLR393227 WLR458751:WLR458763 WLR524287:WLR524299 WLR589823:WLR589835 WLR655359:WLR655371 WLR720895:WLR720907 WLR786431:WLR786443 WLR851967:WLR851979 WLR917503:WLR917515 WLR983039:WLR983051 WVN983039:WVN983051 WVN65535:WVN65547 WVN131071:WVN131083 WVN196607:WVN196619 WVN262143:WVN262155 WVN327679:WVN327691 WVN393215:WVN393227 WVN458751:WVN458763 WVN524287:WVN524299 WVN589823:WVN589835 WVN655359:WVN655371 WVN720895:WVN720907 WVN786431:WVN786443 WVN851967:WVN851979 WVN917503:WVN917515 JB4:JB11 SX4:SX11 ACT4:ACT11 AMP4:AMP11 AWL4:AWL11 BGH4:BGH11 BQD4:BQD11 BZZ4:BZZ11 CJV4:CJV11 CTR4:CTR11 DDN4:DDN11 DNJ4:DNJ11 DXF4:DXF11 EHB4:EHB11 EQX4:EQX11 FAT4:FAT11 FKP4:FKP11 FUL4:FUL11 GEH4:GEH11 GOD4:GOD11 GXZ4:GXZ11 HHV4:HHV11 HRR4:HRR11 IBN4:IBN11 ILJ4:ILJ11 IVF4:IVF11 JFB4:JFB11 JOX4:JOX11 JYT4:JYT11 KIP4:KIP11 KSL4:KSL11 LCH4:LCH11 LMD4:LMD11 LVZ4:LVZ11 MFV4:MFV11 MPR4:MPR11 MZN4:MZN11 NJJ4:NJJ11 NTF4:NTF11 ODB4:ODB11 OMX4:OMX11 OWT4:OWT11 PGP4:PGP11 PQL4:PQL11 QAH4:QAH11 QKD4:QKD11 QTZ4:QTZ11 RDV4:RDV11 RNR4:RNR11 RXN4:RXN11 SHJ4:SHJ11 SRF4:SRF11 TBB4:TBB11 TKX4:TKX11 TUT4:TUT11 UEP4:UEP11 UOL4:UOL11 UYH4:UYH11 VID4:VID11 VRZ4:VRZ11 WBV4:WBV11 WLR4:WLR11 WVN4:WVN11 F4:F11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 JB4:JB12 F4:F12 WVN4:WVN12 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6">
-      <formula1>"预发环境,生产环境,公测环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_EQ组.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mogo_Doc\Mogo_Doc\VersionRecords\Version 5.0.4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="104">
   <si>
     <t>No</t>
   </si>
@@ -565,12 +570,44 @@
     <t>是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>mogoroom-
+renterembed</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>memcache</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">微信
+set 10_smsRequestIp_w_f_ip_ 0 0 723
+101.81.17.87,101.81.16.177,116.193.51.206,116.193.51.207,116.226.111.148,119.81.161.100,116.231.154.143,140.207.223.180,222.73.189.137,163.125.80.181,101.81.21.255,101.90.127.175,101.81.238.11,101.81.237.116,101.81.18.75,116.226.111.0,116.226.109.130,116.226.107.109,180.173.163.239,116.226.107.51,101.81.234.144,101.81.21.43,101.81.16.99,101.81.237.196,116.226.105.245,116.231.154.206,116.226.111.16,101.81.20.127,112.65.191.144,101.81.238.146,115.173.228.234,115.173.231.219,101.81.18.152,115.173.229.72,101.81.22.5,116.226.108.229,101.81.59.51,211.161.194.209,101.81.17.22,116.226.107.223,180.173.170.180,101.81.238.147,116.226.106.95,106.2.196.190,59.108.72.178,183.196.131.98,218.17.162.120,116.25.163.96,120.236.31.38
+支付宝
+set 11_smsRequestIp_w_f_ip_ 0 0 723
+101.81.17.87,101.81.16.177,116.193.51.206,116.193.51.207,116.226.111.148,119.81.161.100,116.231.154.143,140.207.223.180,222.73.189.137,163.125.80.181,101.81.21.255,101.90.127.175,101.81.238.11,101.81.237.116,101.81.18.75,116.226.111.0,116.226.109.130,116.226.107.109,180.173.163.239,116.226.107.51,101.81.234.144,101.81.21.43,101.81.16.99,101.81.237.196,116.226.105.245,116.231.154.206,116.226.111.16,101.81.20.127,112.65.191.144,101.81.238.146,115.173.228.234,115.173.231.219,101.81.18.152,115.173.229.72,101.81.22.5,116.226.108.229,101.81.59.51,211.161.194.209,101.81.17.22,116.226.107.223,180.173.170.180,101.81.238.147,116.226.106.95,106.2.196.190,59.108.72.178,183.196.131.98,218.17.162.120,116.25.163.96,120.236.31.38
+</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送短信白名单</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>这部分IP无需校验
+发送短信的上限</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -848,7 +885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +1035,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1351,17 +1394,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="42.125" style="15" customWidth="1"/>
@@ -1386,7 +1429,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1495,7 +1538,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1545,7 +1588,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1594,7 +1637,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1643,7 +1686,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1692,7 +1735,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="33">
+    <row r="7" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1741,7 +1784,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1790,7 +1833,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1839,7 +1882,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -1888,7 +1931,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -1937,7 +1980,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -1986,7 +2029,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2035,7 +2078,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="41"/>
       <c r="C14" s="10"/>
@@ -2056,7 +2099,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
@@ -2077,7 +2120,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
@@ -2098,7 +2141,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5">
+    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -2119,7 +2162,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5">
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -2140,7 +2183,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5">
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -2161,7 +2204,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5">
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -2182,7 +2225,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5">
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -2203,7 +2246,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5">
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -2224,7 +2267,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5">
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
@@ -2245,7 +2288,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" ht="16.5">
+    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
@@ -2266,7 +2309,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="16.5">
+    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -2287,7 +2330,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" ht="16.5">
+    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -2308,7 +2351,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5">
+    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -2329,7 +2372,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5">
+    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -2350,7 +2393,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5">
+    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -2371,7 +2414,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5">
+    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -2392,7 +2435,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="16.5">
+    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -2413,7 +2456,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="16.5">
+    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -2434,7 +2477,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5">
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -2455,7 +2498,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5">
+    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -2476,7 +2519,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5">
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -2497,7 +2540,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5">
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -2518,7 +2561,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5">
+    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -2539,7 +2582,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5">
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -2560,7 +2603,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5">
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -2581,7 +2624,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5">
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2602,7 +2645,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5">
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -2623,7 +2666,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5">
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2644,7 +2687,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5">
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2665,7 +2708,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5">
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2686,7 +2729,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5">
+    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2707,7 +2750,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5">
+    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2728,7 +2771,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5">
+    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -2749,7 +2792,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5">
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -2770,7 +2813,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -2791,7 +2834,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -2812,7 +2855,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -2833,7 +2876,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2854,7 +2897,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2875,7 +2918,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2896,7 +2939,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2917,7 +2960,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5">
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -2938,7 +2981,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -2959,7 +3002,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -2980,7 +3023,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -3001,7 +3044,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -3022,7 +3065,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -3043,7 +3086,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -3064,7 +3107,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -3085,7 +3128,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -3106,7 +3149,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -3127,7 +3170,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -3148,7 +3191,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -3169,7 +3212,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -3190,7 +3233,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -3211,7 +3254,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -3232,7 +3275,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -3253,7 +3296,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3274,7 +3317,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3295,7 +3338,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3316,7 +3359,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -3337,7 +3380,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3358,7 +3401,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3379,7 +3422,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3400,7 +3443,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3421,7 +3464,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3442,7 +3485,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3463,7 +3506,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3484,7 +3527,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3505,7 +3548,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3526,7 +3569,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3547,7 +3590,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3568,7 +3611,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3589,7 +3632,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3610,7 +3653,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3631,7 +3674,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3652,7 +3695,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3673,7 +3716,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3694,7 +3737,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3715,7 +3758,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3736,7 +3779,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3757,7 +3800,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3778,7 +3821,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3799,7 +3842,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3820,7 +3863,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3841,7 +3884,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5">
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3862,7 +3905,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5">
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3883,7 +3926,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5">
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3904,7 +3947,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5">
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3925,7 +3968,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5">
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3946,7 +3989,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5">
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3967,7 +4010,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5">
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3988,7 +4031,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -4009,7 +4052,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -4030,7 +4073,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -4051,7 +4094,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -4072,7 +4115,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5">
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -4093,7 +4136,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5">
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -4111,7 +4154,7 @@
       <c r="O112" s="4"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5">
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -4129,7 +4172,7 @@
       <c r="O113" s="4"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5">
+    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -4147,7 +4190,7 @@
       <c r="O114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5">
+    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -4165,7 +4208,7 @@
       <c r="O115" s="4"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5">
+    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -4183,7 +4226,7 @@
       <c r="O116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5">
+    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -4201,7 +4244,7 @@
       <c r="O117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5">
+    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -4219,7 +4262,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5">
+    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -4237,7 +4280,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" ht="16.5">
+    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -4255,7 +4298,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" ht="16.5">
+    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -4273,7 +4316,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="16.5">
+    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -4291,7 +4334,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" ht="16.5">
+    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -4309,7 +4352,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" ht="16.5">
+    <row r="124" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -4327,7 +4370,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" ht="16.5">
+    <row r="125" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -4345,7 +4388,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" ht="16.5">
+    <row r="126" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -4363,7 +4406,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" ht="16.5">
+    <row r="127" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -4381,7 +4424,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" ht="16.5">
+    <row r="128" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -4399,7 +4442,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" ht="16.5">
+    <row r="129" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -4417,7 +4460,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" ht="16.5">
+    <row r="130" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -4435,7 +4478,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" ht="16.5">
+    <row r="131" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -4453,7 +4496,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" ht="16.5">
+    <row r="132" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -4471,7 +4514,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" ht="16.5">
+    <row r="133" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -4489,7 +4532,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" ht="16.5">
+    <row r="134" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -4507,7 +4550,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" ht="16.5">
+    <row r="135" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -4525,7 +4568,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" ht="16.5">
+    <row r="136" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -4543,7 +4586,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" ht="16.5">
+    <row r="137" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -4561,7 +4604,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" ht="16.5">
+    <row r="138" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -4579,7 +4622,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" ht="16.5">
+    <row r="139" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -4597,7 +4640,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" ht="16.5">
+    <row r="140" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -4615,7 +4658,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" ht="16.5">
+    <row r="141" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -4633,7 +4676,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" ht="16.5">
+    <row r="142" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4651,7 +4694,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" ht="16.5">
+    <row r="143" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4669,7 +4712,7 @@
       <c r="O143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -4687,7 +4730,7 @@
       <c r="O144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -4705,7 +4748,7 @@
       <c r="O145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -4731,21 +4774,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
         <v>27</v>
       </c>
@@ -4758,7 +4801,7 @@
       <c r="H1" s="46"/>
       <c r="I1" s="47"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -4769,7 +4812,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="49"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4798,7 +4841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4809,7 +4852,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4820,7 +4863,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4831,7 +4874,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4842,7 +4885,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4853,7 +4896,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4864,7 +4907,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4875,7 +4918,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4886,7 +4929,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4897,7 +4940,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4908,7 +4951,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4937,14 +4980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4955,7 +4998,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4981,7 +5024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4991,7 +5034,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -5001,7 +5044,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -5011,7 +5054,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -5021,7 +5064,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5031,7 +5074,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -5041,7 +5084,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -5051,7 +5094,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5061,7 +5104,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5071,7 +5114,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5081,7 +5124,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5091,7 +5134,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5101,7 +5144,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5111,7 +5154,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5121,7 +5164,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5131,7 +5174,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5141,7 +5184,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5151,7 +5194,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -5173,14 +5216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -6016,7 +6059,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
         <v>36</v>
       </c>
@@ -6033,7 +6076,7 @@
       <c r="L1" s="46"/>
       <c r="M1" s="47"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -6048,7 +6091,7 @@
       <c r="L2" s="48"/>
       <c r="M2" s="49"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -6089,7 +6132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="45" customFormat="1" ht="115.5">
+    <row r="4" spans="1:13" s="45" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A4" s="42">
         <v>1</v>
       </c>
@@ -6128,7 +6171,7 @@
       </c>
       <c r="M4" s="43"/>
     </row>
-    <row r="5" spans="1:13" s="45" customFormat="1" ht="82.5">
+    <row r="5" spans="1:13" s="45" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A5" s="42">
         <v>2</v>
       </c>
@@ -6167,7 +6210,7 @@
       </c>
       <c r="M5" s="43"/>
     </row>
-    <row r="6" spans="1:13" s="45" customFormat="1" ht="66">
+    <row r="6" spans="1:13" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A6" s="42">
         <v>3</v>
       </c>
@@ -6208,7 +6251,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="45" customFormat="1" ht="99">
+    <row r="7" spans="1:13" s="45" customFormat="1" ht="99" x14ac:dyDescent="0.15">
       <c r="A7" s="42">
         <v>4</v>
       </c>
@@ -6247,22 +6290,48 @@
       </c>
       <c r="M7" s="43"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-    </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="29">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -6277,7 +6346,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -6292,7 +6361,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -6307,7 +6376,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -6328,7 +6397,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12 JB4:JB12 F4:F12 WVN4:WVN12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12 JB4:JB12 WVN4:WVN12 F4:F12">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 I1:I1048576">
@@ -6341,14 +6410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -7184,7 +7253,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
         <v>36</v>
       </c>
@@ -7201,7 +7270,7 @@
       <c r="L1" s="46"/>
       <c r="M1" s="47"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -7216,7 +7285,7 @@
       <c r="L2" s="48"/>
       <c r="M2" s="49"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -7257,7 +7326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="115.5">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A4" s="42">
         <v>1</v>
       </c>
@@ -7296,7 +7365,7 @@
       </c>
       <c r="M4" s="43"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="82.5">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A5" s="42">
         <v>2</v>
       </c>
@@ -7335,7 +7404,7 @@
       </c>
       <c r="M5" s="43"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="66">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A6" s="42">
         <v>3</v>
       </c>
@@ -7376,7 +7445,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="99">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="99" x14ac:dyDescent="0.15">
       <c r="A7" s="42">
         <v>4</v>
       </c>
@@ -7415,22 +7484,48 @@
       </c>
       <c r="M7" s="43"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-    </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="29">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -7445,7 +7540,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -7460,7 +7555,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -7475,7 +7570,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -7496,10 +7591,10 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 ACT4:ACT12 SX4:SX12 JB4:JB12 WVN4:WVN12 AMP4:AMP12 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 F4:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 F4:F12 AWL4:AWL12 BGH4:BGH12 BQD4:BQD12 BZZ4:BZZ12 CJV4:CJV12 CTR4:CTR12 DDN4:DDN12 DNJ4:DNJ12 DXF4:DXF12 EHB4:EHB12 EQX4:EQX12 FAT4:FAT12 FKP4:FKP12 FUL4:FUL12 GEH4:GEH12 GOD4:GOD12 GXZ4:GXZ12 HHV4:HHV12 HRR4:HRR12 IBN4:IBN12 ILJ4:ILJ12 IVF4:IVF12 JFB4:JFB12 JOX4:JOX12 JYT4:JYT12 KIP4:KIP12 KSL4:KSL12 LCH4:LCH12 LMD4:LMD12 LVZ4:LVZ12 MFV4:MFV12 MPR4:MPR12 MZN4:MZN12 NJJ4:NJJ12 NTF4:NTF12 ODB4:ODB12 OMX4:OMX12 OWT4:OWT12 PGP4:PGP12 PQL4:PQL12 QAH4:QAH12 QKD4:QKD12 QTZ4:QTZ12 RDV4:RDV12 RNR4:RNR12 RXN4:RXN12 SHJ4:SHJ12 SRF4:SRF12 TBB4:TBB12 TKX4:TKX12 TUT4:TUT12 UEP4:UEP12 UOL4:UOL12 UYH4:UYH12 VID4:VID12 VRZ4:VRZ12 WBV4:WBV12 WLR4:WLR12 AMP4:AMP12 WVN4:WVN12 JB4:JB12 SX4:SX12 ACT4:ACT12">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 JE1:JE1048576 WVQ1:WVQ1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7508,14 +7603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -8351,7 +8446,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
         <v>36</v>
       </c>
@@ -8368,7 +8463,7 @@
       <c r="L1" s="46"/>
       <c r="M1" s="47"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -8383,7 +8478,7 @@
       <c r="L2" s="48"/>
       <c r="M2" s="49"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -8424,7 +8519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -8439,7 +8534,7 @@
       <c r="L4" s="29"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -8454,7 +8549,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -8469,7 +8564,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -8484,7 +8579,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -8499,7 +8594,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -8514,7 +8609,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -8529,7 +8624,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -8544,7 +8639,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_EQ组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mogo_Doc\Mogo_Doc\VersionRecords\Version 5.0.4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'(预发布)需要修改的配置文件'!$A$1:$M$3</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -606,8 +601,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -722,6 +717,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1024,6 +1020,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,12 +1037,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1055,6 +1051,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1074,7 +1138,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1394,7 +1458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1404,7 +1468,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="42.125" style="15" customWidth="1"/>
@@ -1429,7 +1493,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1538,7 +1602,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1588,7 +1652,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="16.5">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1637,7 +1701,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="16.5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1686,7 +1750,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="16.5">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1735,7 +1799,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="33">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1784,7 +1848,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="16.5">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1833,7 +1897,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="16.5">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1882,7 +1946,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="16.5">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -1931,7 +1995,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="16.5">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -1980,7 +2044,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="16.5">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -2029,7 +2093,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="16.5">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2078,7 +2142,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="41"/>
       <c r="C14" s="10"/>
@@ -2099,7 +2163,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="16.5">
       <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
@@ -2120,7 +2184,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
@@ -2141,7 +2205,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="16.5">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -2162,7 +2226,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="16.5">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -2183,7 +2247,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="16.5">
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -2204,7 +2268,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="16.5">
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -2225,7 +2289,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="16.5">
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -2246,7 +2310,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -2267,7 +2331,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
@@ -2288,7 +2352,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
@@ -2309,7 +2373,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -2330,7 +2394,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -2351,7 +2415,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="16.5">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -2372,7 +2436,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="16.5">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -2393,7 +2457,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="16.5">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -2414,7 +2478,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="16.5">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -2435,7 +2499,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" ht="16.5">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -2456,7 +2520,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="16.5">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -2477,7 +2541,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -2498,7 +2562,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -2519,7 +2583,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -2540,7 +2604,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -2561,7 +2625,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -2582,7 +2646,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -2603,7 +2667,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -2624,7 +2688,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2645,7 +2709,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -2666,7 +2730,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2687,7 +2751,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2708,7 +2772,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2729,7 +2793,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2750,7 +2814,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2771,7 +2835,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -2792,7 +2856,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -2813,7 +2877,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -2834,7 +2898,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -2855,7 +2919,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -2876,7 +2940,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2897,7 +2961,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2918,7 +2982,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2939,7 +3003,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2960,7 +3024,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -2981,7 +3045,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -3002,7 +3066,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -3023,7 +3087,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -3044,7 +3108,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -3065,7 +3129,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -3086,7 +3150,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -3107,7 +3171,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -3128,7 +3192,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -3149,7 +3213,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -3170,7 +3234,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -3191,7 +3255,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -3212,7 +3276,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -3233,7 +3297,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -3254,7 +3318,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -3275,7 +3339,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -3296,7 +3360,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3317,7 +3381,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3338,7 +3402,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3359,7 +3423,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -3380,7 +3444,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3401,7 +3465,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3422,7 +3486,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3443,7 +3507,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3464,7 +3528,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3485,7 +3549,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3506,7 +3570,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3527,7 +3591,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3548,7 +3612,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3569,7 +3633,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3590,7 +3654,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3611,7 +3675,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3632,7 +3696,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3653,7 +3717,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3674,7 +3738,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3695,7 +3759,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3716,7 +3780,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3737,7 +3801,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3758,7 +3822,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3779,7 +3843,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3800,7 +3864,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3821,7 +3885,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3842,7 +3906,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3863,7 +3927,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" ht="16.5">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3884,7 +3948,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" ht="16.5">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3905,7 +3969,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" ht="16.5">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3926,7 +3990,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="16.5">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3947,7 +4011,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" ht="16.5">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3968,7 +4032,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" ht="16.5">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3989,7 +4053,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" ht="16.5">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -4010,7 +4074,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" ht="16.5">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -4031,7 +4095,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="16.5">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -4052,7 +4116,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="16.5">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -4073,7 +4137,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="16.5">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -4094,7 +4158,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="16.5">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -4115,7 +4179,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" ht="16.5">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -4136,7 +4200,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" ht="16.5">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -4154,7 +4218,7 @@
       <c r="O112" s="4"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19" ht="16.5">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -4172,7 +4236,7 @@
       <c r="O113" s="4"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19" ht="16.5">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -4190,7 +4254,7 @@
       <c r="O114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19" ht="16.5">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -4208,7 +4272,7 @@
       <c r="O115" s="4"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19" ht="16.5">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -4226,7 +4290,7 @@
       <c r="O116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" ht="16.5">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -4244,7 +4308,7 @@
       <c r="O117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" ht="16.5">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -4262,7 +4326,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" ht="16.5">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -4280,7 +4344,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19" ht="16.5">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -4298,7 +4362,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19" ht="16.5">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -4316,7 +4380,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19" ht="16.5">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -4334,7 +4398,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19" ht="16.5">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -4352,7 +4416,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19" ht="16.5">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -4370,7 +4434,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19" ht="16.5">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -4388,7 +4452,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19" ht="16.5">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -4406,7 +4470,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19" ht="16.5">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -4424,7 +4488,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19" ht="16.5">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -4442,7 +4506,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19" ht="16.5">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -4460,7 +4524,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19" ht="16.5">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -4478,7 +4542,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19" ht="16.5">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -4496,7 +4560,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19" ht="16.5">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -4514,7 +4578,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19" ht="16.5">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -4532,7 +4596,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19" ht="16.5">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -4550,7 +4614,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19" ht="16.5">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -4568,7 +4632,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19" ht="16.5">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -4586,7 +4650,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19" ht="16.5">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -4604,7 +4668,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19" ht="16.5">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -4622,7 +4686,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19" ht="16.5">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -4640,7 +4704,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19" ht="16.5">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -4658,7 +4722,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19" ht="16.5">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -4676,7 +4740,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19" ht="16.5">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4694,7 +4758,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19" ht="16.5">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4712,7 +4776,7 @@
       <c r="O143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -4730,7 +4794,7 @@
       <c r="O144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -4748,7 +4812,7 @@
       <c r="O145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -4774,45 +4838,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-    </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4841,7 +4905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4852,7 +4916,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4863,7 +4927,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4874,7 +4938,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4885,7 +4949,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4896,7 +4960,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4907,7 +4971,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4918,7 +4982,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4929,7 +4993,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4940,7 +5004,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4951,7 +5015,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4980,14 +5044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4998,7 +5062,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -5024,7 +5088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -5034,7 +5098,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -5044,7 +5108,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -5054,7 +5118,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -5064,7 +5128,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5074,7 +5138,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -5084,7 +5148,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -5094,7 +5158,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5104,7 +5168,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5114,7 +5178,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5124,7 +5188,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5134,7 +5198,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5144,7 +5208,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5154,7 +5218,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5164,7 +5228,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5174,7 +5238,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5184,7 +5248,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5194,7 +5258,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -5216,14 +5280,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -6059,39 +6123,39 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-    </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+    </row>
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -6132,7 +6196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="45" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="45" customFormat="1" ht="115.5">
       <c r="A4" s="42">
         <v>1</v>
       </c>
@@ -6171,7 +6235,7 @@
       </c>
       <c r="M4" s="43"/>
     </row>
-    <row r="5" spans="1:13" s="45" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="45" customFormat="1" ht="82.5">
       <c r="A5" s="42">
         <v>2</v>
       </c>
@@ -6210,7 +6274,7 @@
       </c>
       <c r="M5" s="43"/>
     </row>
-    <row r="6" spans="1:13" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="45" customFormat="1" ht="66">
       <c r="A6" s="42">
         <v>3</v>
       </c>
@@ -6251,7 +6315,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="45" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="45" customFormat="1" ht="99">
       <c r="A7" s="42">
         <v>4</v>
       </c>
@@ -6290,7 +6354,7 @@
       </c>
       <c r="M7" s="43"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="51.75" customHeight="1">
       <c r="A8" s="29">
         <v>5</v>
       </c>
@@ -6303,7 +6367,7 @@
       <c r="D8" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="46" t="s">
         <v>99</v>
       </c>
       <c r="F8" s="42" t="s">
@@ -6312,16 +6376,16 @@
       <c r="G8" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="47" t="s">
         <v>101</v>
       </c>
       <c r="I8" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="46" t="s">
         <v>102</v>
       </c>
       <c r="L8" s="42" t="s">
@@ -6331,7 +6395,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -6346,7 +6410,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -6361,7 +6425,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -6376,7 +6440,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -6410,14 +6474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -7253,39 +7317,39 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-    </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+    </row>
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -7326,7 +7390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="115.5">
       <c r="A4" s="42">
         <v>1</v>
       </c>
@@ -7365,7 +7429,7 @@
       </c>
       <c r="M4" s="43"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="82.5">
       <c r="A5" s="42">
         <v>2</v>
       </c>
@@ -7404,7 +7468,7 @@
       </c>
       <c r="M5" s="43"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="66">
       <c r="A6" s="42">
         <v>3</v>
       </c>
@@ -7445,7 +7509,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="99">
       <c r="A7" s="42">
         <v>4</v>
       </c>
@@ -7484,7 +7548,7 @@
       </c>
       <c r="M7" s="43"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="51.75" customHeight="1">
       <c r="A8" s="29">
         <v>5</v>
       </c>
@@ -7497,7 +7561,7 @@
       <c r="D8" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="46" t="s">
         <v>99</v>
       </c>
       <c r="F8" s="42" t="s">
@@ -7506,16 +7570,16 @@
       <c r="G8" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="47" t="s">
         <v>101</v>
       </c>
       <c r="I8" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="46" t="s">
         <v>102</v>
       </c>
       <c r="L8" s="42" t="s">
@@ -7525,7 +7589,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -7540,7 +7604,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -7555,7 +7619,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -7570,7 +7634,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -7603,14 +7667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -8446,39 +8510,39 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-    </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+    </row>
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -8519,7 +8583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -8534,7 +8598,7 @@
       <c r="L4" s="29"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -8549,7 +8613,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -8564,7 +8628,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -8579,7 +8643,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -8594,7 +8658,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -8609,7 +8673,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -8624,7 +8688,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -8639,7 +8703,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_EQ组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -458,17 +458,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>jdbc.driverClassName_se=
-jdbc.url_se=
-jdbc.username_se=
-jdbc.password_se=</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置值为IP为15的从库DB</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>mogoroom-renterpc</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -595,6 +584,30 @@
   <si>
     <t>这部分IP无需校验
 发送短信的上限</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.driverClassName_se=
+jdbc.url_se=
+jdbc.username_se=
+jdbc.password_se=
+配置值为从库DB</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>预发环境</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.driverClassName_se=
+jdbc.url_se=
+jdbc.username_se=
+jdbc.password_se=
+配置值为IP为15的从库DB</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>公测环境</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -881,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,9 +988,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1051,74 +1061,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1138,7 +1080,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1556,7 +1498,7 @@
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1596,9 +1538,9 @@
       <c r="O2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
@@ -1606,8 +1548,8 @@
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>96</v>
+      <c r="B3" s="37" t="s">
+        <v>94</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>64</v>
@@ -1616,7 +1558,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F3" s="11">
         <v>42663</v>
@@ -1646,9 +1588,9 @@
       <c r="O3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
       <c r="S3" s="13"/>
       <c r="T3" s="8"/>
     </row>
@@ -1656,7 +1598,7 @@
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1705,7 +1647,7 @@
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1754,7 +1696,7 @@
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1803,7 +1745,7 @@
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1852,7 +1794,7 @@
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -1901,7 +1843,7 @@
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -1950,7 +1892,7 @@
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1999,7 +1941,7 @@
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -2048,7 +1990,7 @@
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -2097,7 +2039,7 @@
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -2144,7 +2086,7 @@
     </row>
     <row r="14" spans="1:20" ht="16.5">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -4853,28 +4795,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -5281,26 +5223,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="7" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="33" customWidth="1"/>
-    <col min="5" max="5" width="35" style="33" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="7" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="32" customWidth="1"/>
+    <col min="5" max="5" width="35" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="32" customWidth="1"/>
     <col min="8" max="8" width="25.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="34" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="35" customWidth="1"/>
+    <col min="12" max="12" width="9" style="34" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -6124,36 +6066,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -6174,10 +6116,10 @@
       <c r="F3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="24" t="s">
@@ -6196,204 +6138,178 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="45" customFormat="1" ht="115.5">
-      <c r="A4" s="42">
+    <row r="4" spans="1:13" s="44" customFormat="1" ht="115.5">
+      <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="43"/>
-    </row>
-    <row r="5" spans="1:13" s="45" customFormat="1" ht="82.5">
-      <c r="A5" s="42">
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="1:13" s="44" customFormat="1" ht="82.5">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="42" t="s">
+      <c r="D5" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="43" t="s">
+      <c r="F5" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="43" t="s">
+      <c r="I5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="43"/>
-    </row>
-    <row r="6" spans="1:13" s="45" customFormat="1" ht="66">
-      <c r="A6" s="42">
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:13" s="44" customFormat="1" ht="99">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="42" t="s">
+      <c r="D6" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A7" s="45">
+        <v>4</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="42" t="s">
+      <c r="G7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="45" customFormat="1" ht="99">
-      <c r="A7" s="42">
-        <v>4</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="43"/>
-    </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A8" s="29">
-        <v>5</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="47" t="s">
+      <c r="M7" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>103</v>
-      </c>
+    </row>
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
@@ -6402,8 +6318,8 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -6417,8 +6333,8 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="36"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -6432,28 +6348,13 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="36"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6461,10 +6362,10 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12 JB4:JB12 WVN4:WVN12 F4:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65535:F65547 F131071:F131083 F196607:F196619 F262143:F262155 F327679:F327691 F393215:F393227 F458751:F458763 F524287:F524299 F589823:F589835 F655359:F655371 F720895:F720907 F786431:F786443 F851967:F851979 F917503:F917515 F983039:F983051 JB65535:JB65547 JB131071:JB131083 JB196607:JB196619 JB262143:JB262155 JB327679:JB327691 JB393215:JB393227 JB458751:JB458763 JB524287:JB524299 JB589823:JB589835 JB655359:JB655371 JB720895:JB720907 JB786431:JB786443 JB851967:JB851979 JB917503:JB917515 JB983039:JB983051 SX65535:SX65547 SX131071:SX131083 SX196607:SX196619 SX262143:SX262155 SX327679:SX327691 SX393215:SX393227 SX458751:SX458763 SX524287:SX524299 SX589823:SX589835 SX655359:SX655371 SX720895:SX720907 SX786431:SX786443 SX851967:SX851979 SX917503:SX917515 SX983039:SX983051 ACT65535:ACT65547 ACT131071:ACT131083 ACT196607:ACT196619 ACT262143:ACT262155 ACT327679:ACT327691 ACT393215:ACT393227 ACT458751:ACT458763 ACT524287:ACT524299 ACT589823:ACT589835 ACT655359:ACT655371 ACT720895:ACT720907 ACT786431:ACT786443 ACT851967:ACT851979 ACT917503:ACT917515 ACT983039:ACT983051 AMP65535:AMP65547 AMP131071:AMP131083 AMP196607:AMP196619 AMP262143:AMP262155 AMP327679:AMP327691 AMP393215:AMP393227 AMP458751:AMP458763 AMP524287:AMP524299 AMP589823:AMP589835 AMP655359:AMP655371 AMP720895:AMP720907 AMP786431:AMP786443 AMP851967:AMP851979 AMP917503:AMP917515 AMP983039:AMP983051 AWL65535:AWL65547 AWL131071:AWL131083 AWL196607:AWL196619 AWL262143:AWL262155 AWL327679:AWL327691 AWL393215:AWL393227 AWL458751:AWL458763 AWL524287:AWL524299 AWL589823:AWL589835 AWL655359:AWL655371 AWL720895:AWL720907 AWL786431:AWL786443 AWL851967:AWL851979 AWL917503:AWL917515 AWL983039:AWL983051 BGH65535:BGH65547 BGH131071:BGH131083 BGH196607:BGH196619 BGH262143:BGH262155 BGH327679:BGH327691 BGH393215:BGH393227 BGH458751:BGH458763 BGH524287:BGH524299 BGH589823:BGH589835 BGH655359:BGH655371 BGH720895:BGH720907 BGH786431:BGH786443 BGH851967:BGH851979 BGH917503:BGH917515 BGH983039:BGH983051 BQD65535:BQD65547 BQD131071:BQD131083 BQD196607:BQD196619 BQD262143:BQD262155 BQD327679:BQD327691 BQD393215:BQD393227 BQD458751:BQD458763 BQD524287:BQD524299 BQD589823:BQD589835 BQD655359:BQD655371 BQD720895:BQD720907 BQD786431:BQD786443 BQD851967:BQD851979 BQD917503:BQD917515 BQD983039:BQD983051 BZZ65535:BZZ65547 BZZ131071:BZZ131083 BZZ196607:BZZ196619 BZZ262143:BZZ262155 BZZ327679:BZZ327691 BZZ393215:BZZ393227 BZZ458751:BZZ458763 BZZ524287:BZZ524299 BZZ589823:BZZ589835 BZZ655359:BZZ655371 BZZ720895:BZZ720907 BZZ786431:BZZ786443 BZZ851967:BZZ851979 BZZ917503:BZZ917515 BZZ983039:BZZ983051 CJV65535:CJV65547 CJV131071:CJV131083 CJV196607:CJV196619 CJV262143:CJV262155 CJV327679:CJV327691 CJV393215:CJV393227 CJV458751:CJV458763 CJV524287:CJV524299 CJV589823:CJV589835 CJV655359:CJV655371 CJV720895:CJV720907 CJV786431:CJV786443 CJV851967:CJV851979 CJV917503:CJV917515 CJV983039:CJV983051 CTR65535:CTR65547 CTR131071:CTR131083 CTR196607:CTR196619 CTR262143:CTR262155 CTR327679:CTR327691 CTR393215:CTR393227 CTR458751:CTR458763 CTR524287:CTR524299 CTR589823:CTR589835 CTR655359:CTR655371 CTR720895:CTR720907 CTR786431:CTR786443 CTR851967:CTR851979 CTR917503:CTR917515 CTR983039:CTR983051 DDN65535:DDN65547 DDN131071:DDN131083 DDN196607:DDN196619 DDN262143:DDN262155 DDN327679:DDN327691 DDN393215:DDN393227 DDN458751:DDN458763 DDN524287:DDN524299 DDN589823:DDN589835 DDN655359:DDN655371 DDN720895:DDN720907 DDN786431:DDN786443 DDN851967:DDN851979 DDN917503:DDN917515 DDN983039:DDN983051 DNJ65535:DNJ65547 DNJ131071:DNJ131083 DNJ196607:DNJ196619 DNJ262143:DNJ262155 DNJ327679:DNJ327691 DNJ393215:DNJ393227 DNJ458751:DNJ458763 DNJ524287:DNJ524299 DNJ589823:DNJ589835 DNJ655359:DNJ655371 DNJ720895:DNJ720907 DNJ786431:DNJ786443 DNJ851967:DNJ851979 DNJ917503:DNJ917515 DNJ983039:DNJ983051 DXF65535:DXF65547 DXF131071:DXF131083 DXF196607:DXF196619 DXF262143:DXF262155 DXF327679:DXF327691 DXF393215:DXF393227 DXF458751:DXF458763 DXF524287:DXF524299 DXF589823:DXF589835 DXF655359:DXF655371 DXF720895:DXF720907 DXF786431:DXF786443 DXF851967:DXF851979 DXF917503:DXF917515 DXF983039:DXF983051 EHB65535:EHB65547 EHB131071:EHB131083 EHB196607:EHB196619 EHB262143:EHB262155 EHB327679:EHB327691 EHB393215:EHB393227 EHB458751:EHB458763 EHB524287:EHB524299 EHB589823:EHB589835 EHB655359:EHB655371 EHB720895:EHB720907 EHB786431:EHB786443 EHB851967:EHB851979 EHB917503:EHB917515 EHB983039:EHB983051 EQX65535:EQX65547 EQX131071:EQX131083 EQX196607:EQX196619 EQX262143:EQX262155 EQX327679:EQX327691 EQX393215:EQX393227 EQX458751:EQX458763 EQX524287:EQX524299 EQX589823:EQX589835 EQX655359:EQX655371 EQX720895:EQX720907 EQX786431:EQX786443 EQX851967:EQX851979 EQX917503:EQX917515 EQX983039:EQX983051 FAT65535:FAT65547 FAT131071:FAT131083 FAT196607:FAT196619 FAT262143:FAT262155 FAT327679:FAT327691 FAT393215:FAT393227 FAT458751:FAT458763 FAT524287:FAT524299 FAT589823:FAT589835 FAT655359:FAT655371 FAT720895:FAT720907 FAT786431:FAT786443 FAT851967:FAT851979 FAT917503:FAT917515 FAT983039:FAT983051 FKP65535:FKP65547 FKP131071:FKP131083 FKP196607:FKP196619 FKP262143:FKP262155 FKP327679:FKP327691 FKP393215:FKP393227 FKP458751:FKP458763 FKP524287:FKP524299 FKP589823:FKP589835 FKP655359:FKP655371 FKP720895:FKP720907 FKP786431:FKP786443 FKP851967:FKP851979 FKP917503:FKP917515 FKP983039:FKP983051 FUL65535:FUL65547 FUL131071:FUL131083 FUL196607:FUL196619 FUL262143:FUL262155 FUL327679:FUL327691 FUL393215:FUL393227 FUL458751:FUL458763 FUL524287:FUL524299 FUL589823:FUL589835 FUL655359:FUL655371 FUL720895:FUL720907 FUL786431:FUL786443 FUL851967:FUL851979 FUL917503:FUL917515 FUL983039:FUL983051 GEH65535:GEH65547 GEH131071:GEH131083 GEH196607:GEH196619 GEH262143:GEH262155 GEH327679:GEH327691 GEH393215:GEH393227 GEH458751:GEH458763 GEH524287:GEH524299 GEH589823:GEH589835 GEH655359:GEH655371 GEH720895:GEH720907 GEH786431:GEH786443 GEH851967:GEH851979 GEH917503:GEH917515 GEH983039:GEH983051 GOD65535:GOD65547 GOD131071:GOD131083 GOD196607:GOD196619 GOD262143:GOD262155 GOD327679:GOD327691 GOD393215:GOD393227 GOD458751:GOD458763 GOD524287:GOD524299 GOD589823:GOD589835 GOD655359:GOD655371 GOD720895:GOD720907 GOD786431:GOD786443 GOD851967:GOD851979 GOD917503:GOD917515 GOD983039:GOD983051 GXZ65535:GXZ65547 GXZ131071:GXZ131083 GXZ196607:GXZ196619 GXZ262143:GXZ262155 GXZ327679:GXZ327691 GXZ393215:GXZ393227 GXZ458751:GXZ458763 GXZ524287:GXZ524299 GXZ589823:GXZ589835 GXZ655359:GXZ655371 GXZ720895:GXZ720907 GXZ786431:GXZ786443 GXZ851967:GXZ851979 GXZ917503:GXZ917515 GXZ983039:GXZ983051 HHV65535:HHV65547 HHV131071:HHV131083 HHV196607:HHV196619 HHV262143:HHV262155 HHV327679:HHV327691 HHV393215:HHV393227 HHV458751:HHV458763 HHV524287:HHV524299 HHV589823:HHV589835 HHV655359:HHV655371 HHV720895:HHV720907 HHV786431:HHV786443 HHV851967:HHV851979 HHV917503:HHV917515 HHV983039:HHV983051 HRR65535:HRR65547 HRR131071:HRR131083 HRR196607:HRR196619 HRR262143:HRR262155 HRR327679:HRR327691 HRR393215:HRR393227 HRR458751:HRR458763 HRR524287:HRR524299 HRR589823:HRR589835 HRR655359:HRR655371 HRR720895:HRR720907 HRR786431:HRR786443 HRR851967:HRR851979 HRR917503:HRR917515 HRR983039:HRR983051 IBN65535:IBN65547 IBN131071:IBN131083 IBN196607:IBN196619 IBN262143:IBN262155 IBN327679:IBN327691 IBN393215:IBN393227 IBN458751:IBN458763 IBN524287:IBN524299 IBN589823:IBN589835 IBN655359:IBN655371 IBN720895:IBN720907 IBN786431:IBN786443 IBN851967:IBN851979 IBN917503:IBN917515 IBN983039:IBN983051 ILJ65535:ILJ65547 ILJ131071:ILJ131083 ILJ196607:ILJ196619 ILJ262143:ILJ262155 ILJ327679:ILJ327691 ILJ393215:ILJ393227 ILJ458751:ILJ458763 ILJ524287:ILJ524299 ILJ589823:ILJ589835 ILJ655359:ILJ655371 ILJ720895:ILJ720907 ILJ786431:ILJ786443 ILJ851967:ILJ851979 ILJ917503:ILJ917515 ILJ983039:ILJ983051 IVF65535:IVF65547 IVF131071:IVF131083 IVF196607:IVF196619 IVF262143:IVF262155 IVF327679:IVF327691 IVF393215:IVF393227 IVF458751:IVF458763 IVF524287:IVF524299 IVF589823:IVF589835 IVF655359:IVF655371 IVF720895:IVF720907 IVF786431:IVF786443 IVF851967:IVF851979 IVF917503:IVF917515 IVF983039:IVF983051 JFB65535:JFB65547 JFB131071:JFB131083 JFB196607:JFB196619 JFB262143:JFB262155 JFB327679:JFB327691 JFB393215:JFB393227 JFB458751:JFB458763 JFB524287:JFB524299 JFB589823:JFB589835 JFB655359:JFB655371 JFB720895:JFB720907 JFB786431:JFB786443 JFB851967:JFB851979 JFB917503:JFB917515 JFB983039:JFB983051 JOX65535:JOX65547 JOX131071:JOX131083 JOX196607:JOX196619 JOX262143:JOX262155 JOX327679:JOX327691 JOX393215:JOX393227 JOX458751:JOX458763 JOX524287:JOX524299 JOX589823:JOX589835 JOX655359:JOX655371 JOX720895:JOX720907 JOX786431:JOX786443 JOX851967:JOX851979 JOX917503:JOX917515 JOX983039:JOX983051 JYT65535:JYT65547 JYT131071:JYT131083 JYT196607:JYT196619 JYT262143:JYT262155 JYT327679:JYT327691 JYT393215:JYT393227 JYT458751:JYT458763 JYT524287:JYT524299 JYT589823:JYT589835 JYT655359:JYT655371 JYT720895:JYT720907 JYT786431:JYT786443 JYT851967:JYT851979 JYT917503:JYT917515 JYT983039:JYT983051 KIP65535:KIP65547 KIP131071:KIP131083 KIP196607:KIP196619 KIP262143:KIP262155 KIP327679:KIP327691 KIP393215:KIP393227 KIP458751:KIP458763 KIP524287:KIP524299 KIP589823:KIP589835 KIP655359:KIP655371 KIP720895:KIP720907 KIP786431:KIP786443 KIP851967:KIP851979 KIP917503:KIP917515 KIP983039:KIP983051 KSL65535:KSL65547 KSL131071:KSL131083 KSL196607:KSL196619 KSL262143:KSL262155 KSL327679:KSL327691 KSL393215:KSL393227 KSL458751:KSL458763 KSL524287:KSL524299 KSL589823:KSL589835 KSL655359:KSL655371 KSL720895:KSL720907 KSL786431:KSL786443 KSL851967:KSL851979 KSL917503:KSL917515 KSL983039:KSL983051 LCH65535:LCH65547 LCH131071:LCH131083 LCH196607:LCH196619 LCH262143:LCH262155 LCH327679:LCH327691 LCH393215:LCH393227 LCH458751:LCH458763 LCH524287:LCH524299 LCH589823:LCH589835 LCH655359:LCH655371 LCH720895:LCH720907 LCH786431:LCH786443 LCH851967:LCH851979 LCH917503:LCH917515 LCH983039:LCH983051 LMD65535:LMD65547 LMD131071:LMD131083 LMD196607:LMD196619 LMD262143:LMD262155 LMD327679:LMD327691 LMD393215:LMD393227 LMD458751:LMD458763 LMD524287:LMD524299 LMD589823:LMD589835 LMD655359:LMD655371 LMD720895:LMD720907 LMD786431:LMD786443 LMD851967:LMD851979 LMD917503:LMD917515 LMD983039:LMD983051 LVZ65535:LVZ65547 LVZ131071:LVZ131083 LVZ196607:LVZ196619 LVZ262143:LVZ262155 LVZ327679:LVZ327691 LVZ393215:LVZ393227 LVZ458751:LVZ458763 LVZ524287:LVZ524299 LVZ589823:LVZ589835 LVZ655359:LVZ655371 LVZ720895:LVZ720907 LVZ786431:LVZ786443 LVZ851967:LVZ851979 LVZ917503:LVZ917515 LVZ983039:LVZ983051 MFV65535:MFV65547 MFV131071:MFV131083 MFV196607:MFV196619 MFV262143:MFV262155 MFV327679:MFV327691 MFV393215:MFV393227 MFV458751:MFV458763 MFV524287:MFV524299 MFV589823:MFV589835 MFV655359:MFV655371 MFV720895:MFV720907 MFV786431:MFV786443 MFV851967:MFV851979 MFV917503:MFV917515 MFV983039:MFV983051 MPR65535:MPR65547 MPR131071:MPR131083 MPR196607:MPR196619 MPR262143:MPR262155 MPR327679:MPR327691 MPR393215:MPR393227 MPR458751:MPR458763 MPR524287:MPR524299 MPR589823:MPR589835 MPR655359:MPR655371 MPR720895:MPR720907 MPR786431:MPR786443 MPR851967:MPR851979 MPR917503:MPR917515 MPR983039:MPR983051 MZN65535:MZN65547 MZN131071:MZN131083 MZN196607:MZN196619 MZN262143:MZN262155 MZN327679:MZN327691 MZN393215:MZN393227 MZN458751:MZN458763 MZN524287:MZN524299 MZN589823:MZN589835 MZN655359:MZN655371 MZN720895:MZN720907 MZN786431:MZN786443 MZN851967:MZN851979 MZN917503:MZN917515 MZN983039:MZN983051 NJJ65535:NJJ65547 NJJ131071:NJJ131083 NJJ196607:NJJ196619 NJJ262143:NJJ262155 NJJ327679:NJJ327691 NJJ393215:NJJ393227 NJJ458751:NJJ458763 NJJ524287:NJJ524299 NJJ589823:NJJ589835 NJJ655359:NJJ655371 NJJ720895:NJJ720907 NJJ786431:NJJ786443 NJJ851967:NJJ851979 NJJ917503:NJJ917515 NJJ983039:NJJ983051 NTF65535:NTF65547 NTF131071:NTF131083 NTF196607:NTF196619 NTF262143:NTF262155 NTF327679:NTF327691 NTF393215:NTF393227 NTF458751:NTF458763 NTF524287:NTF524299 NTF589823:NTF589835 NTF655359:NTF655371 NTF720895:NTF720907 NTF786431:NTF786443 NTF851967:NTF851979 NTF917503:NTF917515 NTF983039:NTF983051 ODB65535:ODB65547 ODB131071:ODB131083 ODB196607:ODB196619 ODB262143:ODB262155 ODB327679:ODB327691 ODB393215:ODB393227 ODB458751:ODB458763 ODB524287:ODB524299 ODB589823:ODB589835 ODB655359:ODB655371 ODB720895:ODB720907 ODB786431:ODB786443 ODB851967:ODB851979 ODB917503:ODB917515 ODB983039:ODB983051 OMX65535:OMX65547 OMX131071:OMX131083 OMX196607:OMX196619 OMX262143:OMX262155 OMX327679:OMX327691 OMX393215:OMX393227 OMX458751:OMX458763 OMX524287:OMX524299 OMX589823:OMX589835 OMX655359:OMX655371 OMX720895:OMX720907 OMX786431:OMX786443 OMX851967:OMX851979 OMX917503:OMX917515 OMX983039:OMX983051 OWT65535:OWT65547 OWT131071:OWT131083 OWT196607:OWT196619 OWT262143:OWT262155 OWT327679:OWT327691 OWT393215:OWT393227 OWT458751:OWT458763 OWT524287:OWT524299 OWT589823:OWT589835 OWT655359:OWT655371 OWT720895:OWT720907 OWT786431:OWT786443 OWT851967:OWT851979 OWT917503:OWT917515 OWT983039:OWT983051 PGP65535:PGP65547 PGP131071:PGP131083 PGP196607:PGP196619 PGP262143:PGP262155 PGP327679:PGP327691 PGP393215:PGP393227 PGP458751:PGP458763 PGP524287:PGP524299 PGP589823:PGP589835 PGP655359:PGP655371 PGP720895:PGP720907 PGP786431:PGP786443 PGP851967:PGP851979 PGP917503:PGP917515 PGP983039:PGP983051 PQL65535:PQL65547 PQL131071:PQL131083 PQL196607:PQL196619 PQL262143:PQL262155 PQL327679:PQL327691 PQL393215:PQL393227 PQL458751:PQL458763 PQL524287:PQL524299 PQL589823:PQL589835 PQL655359:PQL655371 PQL720895:PQL720907 PQL786431:PQL786443 PQL851967:PQL851979 PQL917503:PQL917515 PQL983039:PQL983051 QAH65535:QAH65547 QAH131071:QAH131083 QAH196607:QAH196619 QAH262143:QAH262155 QAH327679:QAH327691 QAH393215:QAH393227 QAH458751:QAH458763 QAH524287:QAH524299 QAH589823:QAH589835 QAH655359:QAH655371 QAH720895:QAH720907 QAH786431:QAH786443 QAH851967:QAH851979 QAH917503:QAH917515 QAH983039:QAH983051 QKD65535:QKD65547 QKD131071:QKD131083 QKD196607:QKD196619 QKD262143:QKD262155 QKD327679:QKD327691 QKD393215:QKD393227 QKD458751:QKD458763 QKD524287:QKD524299 QKD589823:QKD589835 QKD655359:QKD655371 QKD720895:QKD720907 QKD786431:QKD786443 QKD851967:QKD851979 QKD917503:QKD917515 QKD983039:QKD983051 QTZ65535:QTZ65547 QTZ131071:QTZ131083 QTZ196607:QTZ196619 QTZ262143:QTZ262155 QTZ327679:QTZ327691 QTZ393215:QTZ393227 QTZ458751:QTZ458763 QTZ524287:QTZ524299 QTZ589823:QTZ589835 QTZ655359:QTZ655371 QTZ720895:QTZ720907 QTZ786431:QTZ786443 QTZ851967:QTZ851979 QTZ917503:QTZ917515 QTZ983039:QTZ983051 RDV65535:RDV65547 RDV131071:RDV131083 RDV196607:RDV196619 RDV262143:RDV262155 RDV327679:RDV327691 RDV393215:RDV393227 RDV458751:RDV458763 RDV524287:RDV524299 RDV589823:RDV589835 RDV655359:RDV655371 RDV720895:RDV720907 RDV786431:RDV786443 RDV851967:RDV851979 RDV917503:RDV917515 RDV983039:RDV983051 RNR65535:RNR65547 RNR131071:RNR131083 RNR196607:RNR196619 RNR262143:RNR262155 RNR327679:RNR327691 RNR393215:RNR393227 RNR458751:RNR458763 RNR524287:RNR524299 RNR589823:RNR589835 RNR655359:RNR655371 RNR720895:RNR720907 RNR786431:RNR786443 RNR851967:RNR851979 RNR917503:RNR917515 RNR983039:RNR983051 RXN65535:RXN65547 RXN131071:RXN131083 RXN196607:RXN196619 RXN262143:RXN262155 RXN327679:RXN327691 RXN393215:RXN393227 RXN458751:RXN458763 RXN524287:RXN524299 RXN589823:RXN589835 RXN655359:RXN655371 RXN720895:RXN720907 RXN786431:RXN786443 RXN851967:RXN851979 RXN917503:RXN917515 RXN983039:RXN983051 SHJ65535:SHJ65547 SHJ131071:SHJ131083 SHJ196607:SHJ196619 SHJ262143:SHJ262155 SHJ327679:SHJ327691 SHJ393215:SHJ393227 SHJ458751:SHJ458763 SHJ524287:SHJ524299 SHJ589823:SHJ589835 SHJ655359:SHJ655371 SHJ720895:SHJ720907 SHJ786431:SHJ786443 SHJ851967:SHJ851979 SHJ917503:SHJ917515 SHJ983039:SHJ983051 SRF65535:SRF65547 SRF131071:SRF131083 SRF196607:SRF196619 SRF262143:SRF262155 SRF327679:SRF327691 SRF393215:SRF393227 SRF458751:SRF458763 SRF524287:SRF524299 SRF589823:SRF589835 SRF655359:SRF655371 SRF720895:SRF720907 SRF786431:SRF786443 SRF851967:SRF851979 SRF917503:SRF917515 SRF983039:SRF983051 TBB65535:TBB65547 TBB131071:TBB131083 TBB196607:TBB196619 TBB262143:TBB262155 TBB327679:TBB327691 TBB393215:TBB393227 TBB458751:TBB458763 TBB524287:TBB524299 TBB589823:TBB589835 TBB655359:TBB655371 TBB720895:TBB720907 TBB786431:TBB786443 TBB851967:TBB851979 TBB917503:TBB917515 TBB983039:TBB983051 TKX65535:TKX65547 TKX131071:TKX131083 TKX196607:TKX196619 TKX262143:TKX262155 TKX327679:TKX327691 TKX393215:TKX393227 TKX458751:TKX458763 TKX524287:TKX524299 TKX589823:TKX589835 TKX655359:TKX655371 TKX720895:TKX720907 TKX786431:TKX786443 TKX851967:TKX851979 TKX917503:TKX917515 TKX983039:TKX983051 TUT65535:TUT65547 TUT131071:TUT131083 TUT196607:TUT196619 TUT262143:TUT262155 TUT327679:TUT327691 TUT393215:TUT393227 TUT458751:TUT458763 TUT524287:TUT524299 TUT589823:TUT589835 TUT655359:TUT655371 TUT720895:TUT720907 TUT786431:TUT786443 TUT851967:TUT851979 TUT917503:TUT917515 TUT983039:TUT983051 UEP65535:UEP65547 UEP131071:UEP131083 UEP196607:UEP196619 UEP262143:UEP262155 UEP327679:UEP327691 UEP393215:UEP393227 UEP458751:UEP458763 UEP524287:UEP524299 UEP589823:UEP589835 UEP655359:UEP655371 UEP720895:UEP720907 UEP786431:UEP786443 UEP851967:UEP851979 UEP917503:UEP917515 UEP983039:UEP983051 UOL65535:UOL65547 UOL131071:UOL131083 UOL196607:UOL196619 UOL262143:UOL262155 UOL327679:UOL327691 UOL393215:UOL393227 UOL458751:UOL458763 UOL524287:UOL524299 UOL589823:UOL589835 UOL655359:UOL655371 UOL720895:UOL720907 UOL786431:UOL786443 UOL851967:UOL851979 UOL917503:UOL917515 UOL983039:UOL983051 UYH65535:UYH65547 UYH131071:UYH131083 UYH196607:UYH196619 UYH262143:UYH262155 UYH327679:UYH327691 UYH393215:UYH393227 UYH458751:UYH458763 UYH524287:UYH524299 UYH589823:UYH589835 UYH655359:UYH655371 UYH720895:UYH720907 UYH786431:UYH786443 UYH851967:UYH851979 UYH917503:UYH917515 UYH983039:UYH983051 VID65535:VID65547 VID131071:VID131083 VID196607:VID196619 VID262143:VID262155 VID327679:VID327691 VID393215:VID393227 VID458751:VID458763 VID524287:VID524299 VID589823:VID589835 VID655359:VID655371 VID720895:VID720907 VID786431:VID786443 VID851967:VID851979 VID917503:VID917515 VID983039:VID983051 VRZ65535:VRZ65547 VRZ131071:VRZ131083 VRZ196607:VRZ196619 VRZ262143:VRZ262155 VRZ327679:VRZ327691 VRZ393215:VRZ393227 VRZ458751:VRZ458763 VRZ524287:VRZ524299 VRZ589823:VRZ589835 VRZ655359:VRZ655371 VRZ720895:VRZ720907 VRZ786431:VRZ786443 VRZ851967:VRZ851979 VRZ917503:VRZ917515 VRZ983039:VRZ983051 WBV65535:WBV65547 WBV131071:WBV131083 WBV196607:WBV196619 WBV262143:WBV262155 WBV327679:WBV327691 WBV393215:WBV393227 WBV458751:WBV458763 WBV524287:WBV524299 WBV589823:WBV589835 WBV655359:WBV655371 WBV720895:WBV720907 WBV786431:WBV786443 WBV851967:WBV851979 WBV917503:WBV917515 WBV983039:WBV983051 WLR65535:WLR65547 WLR131071:WLR131083 WLR196607:WLR196619 WLR262143:WLR262155 WLR327679:WLR327691 WLR393215:WLR393227 WLR458751:WLR458763 WLR524287:WLR524299 WLR589823:WLR589835 WLR655359:WLR655371 WLR720895:WLR720907 WLR786431:WLR786443 WLR851967:WLR851979 WLR917503:WLR917515 WLR983039:WLR983051 WVN983039:WVN983051 WVN65535:WVN65547 WVN131071:WVN131083 WVN196607:WVN196619 WVN262143:WVN262155 WVN327679:WVN327691 WVN393215:WVN393227 WVN458751:WVN458763 WVN524287:WVN524299 WVN589823:WVN589835 WVN655359:WVN655371 WVN720895:WVN720907 WVN786431:WVN786443 WVN851967:WVN851979 WVN917503:WVN917515 F4:F11 WVN4:WVN11 JB4:JB11 SX4:SX11 ACT4:ACT11 AMP4:AMP11 AWL4:AWL11 BGH4:BGH11 BQD4:BQD11 BZZ4:BZZ11 CJV4:CJV11 CTR4:CTR11 DDN4:DDN11 DNJ4:DNJ11 DXF4:DXF11 EHB4:EHB11 EQX4:EQX11 FAT4:FAT11 FKP4:FKP11 FUL4:FUL11 GEH4:GEH11 GOD4:GOD11 GXZ4:GXZ11 HHV4:HHV11 HRR4:HRR11 IBN4:IBN11 ILJ4:ILJ11 IVF4:IVF11 JFB4:JFB11 JOX4:JOX11 JYT4:JYT11 KIP4:KIP11 KSL4:KSL11 LCH4:LCH11 LMD4:LMD11 LVZ4:LVZ11 MFV4:MFV11 MPR4:MPR11 MZN4:MZN11 NJJ4:NJJ11 NTF4:NTF11 ODB4:ODB11 OMX4:OMX11 OWT4:OWT11 PGP4:PGP11 PQL4:PQL11 QAH4:QAH11 QKD4:QKD11 QTZ4:QTZ11 RDV4:RDV11 RNR4:RNR11 RXN4:RXN11 SHJ4:SHJ11 SRF4:SRF11 TBB4:TBB11 TKX4:TKX11 TUT4:TUT11 UEP4:UEP11 UOL4:UOL11 UYH4:UYH11 VID4:VID11 VRZ4:VRZ11 WBV4:WBV11 WLR4:WLR11">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6478,23 +6379,23 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="7" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="33" customWidth="1"/>
-    <col min="5" max="5" width="35" style="33" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="7" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="32" customWidth="1"/>
+    <col min="5" max="5" width="35" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="33" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="34" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="35" customWidth="1"/>
+    <col min="12" max="12" width="9" style="34" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -7318,36 +7219,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -7391,202 +7292,200 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="26" customFormat="1" ht="115.5">
-      <c r="A4" s="42">
+      <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="43"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1" ht="82.5">
-      <c r="A5" s="42">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="43"/>
-    </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="66">
-      <c r="A6" s="42">
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="82.5">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="99">
+      <c r="A7" s="41">
+        <v>4</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="E7" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J7" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K7" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L7" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="99">
-      <c r="A7" s="42">
-        <v>4</v>
-      </c>
-      <c r="B7" s="42" t="s">
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A8" s="45">
+        <v>5</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="42" t="s">
+      <c r="D8" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="42" t="s">
+      <c r="J8" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="43"/>
-    </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A8" s="29">
-        <v>5</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="47" t="s">
+      <c r="M8" s="35" t="s">
         <v>101</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
@@ -7596,7 +7495,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
@@ -7611,7 +7510,7 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="32"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -7626,7 +7525,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="32"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
@@ -7641,7 +7540,7 @@
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -7670,24 +7569,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="7" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="33" customWidth="1"/>
-    <col min="5" max="5" width="35" style="33" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="7" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="32" customWidth="1"/>
+    <col min="5" max="5" width="35" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="33" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="34" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="35" customWidth="1"/>
+    <col min="12" max="12" width="9" style="34" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -8511,36 +8410,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -8583,65 +8482,163 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+    <row r="4" spans="1:13" s="44" customFormat="1" ht="115.5">
+      <c r="A4" s="41">
+        <v>1</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="1:13" s="44" customFormat="1" ht="82.5">
+      <c r="A5" s="41">
+        <v>2</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:13" s="44" customFormat="1" ht="99">
+      <c r="A6" s="41">
+        <v>3</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A7" s="45">
+        <v>4</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
@@ -8650,7 +8647,7 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="32"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
@@ -8665,7 +8662,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
@@ -8680,7 +8677,7 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="32"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -8695,7 +8692,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="32"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
@@ -8710,7 +8707,7 @@
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -8724,10 +8721,10 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 JE1:JE1048576 I1:I3 I8:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 JB4:JB12 F4:F12 WVN4:WVN12 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 F4:F12 WVN4:WVN12 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12 JB4:JB12">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
